--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -467,12 +467,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -876,6 +876,150 @@
       </c>
       <c r="H11" s="5" t="n">
         <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-003</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Materials, Fittings, and Equipment</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>312198.51</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>4003 · Mobilization Income</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-003</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Premob support, Management, &amp; Technical Direction</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>9827.1</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>4003 · Mobilization Income</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-003</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Procurement/Logistics</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>9100</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>4003 · Mobilization Income</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-003</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Equipment fabrication and prep, test, &amp; tune</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>27560</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -986,43 +1130,43 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45757</v>
+        <v>45756</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>RENTER'S NAME: BRIAN MORRIS</t>
-        </is>
-      </c>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-001</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>-SPLIT-</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>209.92</v>
+        <v>51408</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45758</v>
+        <v>45757</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1030,23 +1174,19 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>BM</t>
-        </is>
-      </c>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5111 Â· Parts &amp; material costs | Notes: Paint t...</t>
+          <t>RENTER'S NAME: BRIAN MORRIS</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Credit Card at Wells Fargo Ban</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>37.03</v>
+        <v>209.92</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>300</v>
@@ -1054,11 +1194,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45759</v>
+        <v>45758</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1073,7 +1213,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5107 Â· Travel - Other | Notes: San jose hotel ...</t>
+          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5111 Â· Parts &amp; material costs | Notes: Paint t...</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1082,7 +1222,7 @@
         </is>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18</v>
+        <v>37.03</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>300</v>
@@ -1090,11 +1230,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45795</v>
+        <v>45759</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1104,12 +1244,12 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>User: Sepehr Ghahremani | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; materia...</t>
+          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5107 Â· Travel - Other | Notes: San jose hotel ...</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1118,7 +1258,7 @@
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>763.61</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>300</v>
@@ -1126,7 +1266,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45800</v>
+        <v>45795</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
@@ -1154,7 +1294,7 @@
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>178.98</v>
+        <v>763.61</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>300</v>
@@ -1162,11 +1302,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45852</v>
+        <v>45800</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1174,19 +1314,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull &amp; Vu T	Flight- SNA to SJC- SJC to SNA 7/17</t>
+          <t>User: Sepehr Ghahremani | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; materia...</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
-        <v>770.95</v>
+        <v>178.98</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>300</v>
@@ -1226,11 +1370,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1238,23 +1382,19 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull San Jose 7/17 - 7/17</t>
+          <t>Gordon Doull &amp; Vu T	Flight- SNA to SJC- SJC to SNA 7/17</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>64.45</v>
+        <v>770.95</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>300</v>
@@ -1262,11 +1402,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1276,21 +1416,21 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>User: Vu Tran | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5105 Â· Travel - Airfare | Card: ...</t>
+          <t>Gordon Doull San Jose 7/17 - 7/17</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Credit Card at Wells Fargo Ban</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>27.14</v>
+        <v>64.45</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>300</v>
@@ -1298,11 +1438,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45857</v>
+        <v>45856</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1312,12 +1452,12 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>VT</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | Not...</t>
+          <t>User: Vu Tran | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5105 Â· Travel - Airfare | Card: ...</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -1326,7 +1466,7 @@
         </is>
       </c>
       <c r="G12" s="4" t="n">
-        <v>30</v>
+        <v>27.14</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>300</v>
@@ -1334,11 +1474,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45860</v>
+        <v>45857</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>5124 · License and permits (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1353,7 +1493,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5124 Â· License and permits ...</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | Not...</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -1362,7 +1502,7 @@
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>300</v>
@@ -1370,35 +1510,35 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45873</v>
+        <v>45860</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5124 · License and permits (Direct)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>(E)429605</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>3 X 2 STD WELD CONC RED</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5124 Â· License and permits ...</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>232.77</v>
+        <v>500</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>300</v>
@@ -1425,7 +1565,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>3 STD WELD CAP</t>
+          <t>3 X 2 STD WELD CONC RED</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1434,7 +1574,7 @@
         </is>
       </c>
       <c r="G15" s="4" t="n">
-        <v>92.11</v>
+        <v>232.77</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>300</v>
@@ -1461,7 +1601,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>5 STD WELD CAP</t>
+          <t>3 STD WELD CAP</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1470,7 +1610,7 @@
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>626.46</v>
+        <v>92.11</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>300</v>
@@ -1497,7 +1637,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2  STD WELD CAP</t>
+          <t>5 STD WELD CAP</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1506,7 +1646,7 @@
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>305.11</v>
+        <v>626.46</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>300</v>
@@ -1533,7 +1673,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>2  STD WELD CAP</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1542,7 +1682,7 @@
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>15</v>
+        <v>305.11</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>300</v>
@@ -1569,7 +1709,7 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1578,7 +1718,7 @@
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>97.7</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>300</v>
@@ -1586,7 +1726,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -1600,12 +1740,12 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9163456961</t>
+          <t>(E)429605</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>RAD64005012 -RADNOR™ 2" X 4 1/4"</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1614,7 +1754,7 @@
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>55</v>
+        <v>97.7</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>300</v>
@@ -1641,7 +1781,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Indura®/Leather Flame Resistant Sleeves</t>
+          <t>RAD64005012 -RADNOR™ 2" X 4 1/4"</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1650,7 +1790,7 @@
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>47.48</v>
+        <v>55</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>300</v>
@@ -1677,7 +1817,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>tac</t>
+          <t>Indura®/Leather Flame Resistant Sleeves</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -1686,7 +1826,7 @@
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>7.94</v>
+        <v>47.48</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>300</v>
@@ -1708,12 +1848,12 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>9163809252</t>
+          <t xml:space="preserve"> 9163456961</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>LINED010203 -1/8" X 14" E6010 Fleetweld®</t>
+          <t>tac</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
@@ -1722,7 +1862,7 @@
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>735</v>
+        <v>7.94</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>300</v>
@@ -1749,7 +1889,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>HazmatCharge</t>
+          <t>LINED010203 -1/8" X 14" E6010 Fleetweld®</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -1758,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>45</v>
+        <v>735</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>300</v>
@@ -1785,7 +1925,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>HazmatCharge</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -1794,7 +1934,7 @@
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>60.45</v>
+        <v>45</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>300</v>
@@ -1802,7 +1942,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45880</v>
+        <v>45876</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -1816,12 +1956,12 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>9163809259</t>
+          <t>9163809252</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -1830,7 +1970,7 @@
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>12.27</v>
+        <v>60.45</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>300</v>
@@ -1857,7 +1997,7 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
+          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
@@ -1866,7 +2006,7 @@
         </is>
       </c>
       <c r="G27" s="4" t="n">
-        <v>140.5</v>
+        <v>12.27</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>300</v>
@@ -1893,7 +2033,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Taxes &amp; Fees</t>
+          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1902,7 +2042,7 @@
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>64.2</v>
+        <v>140.5</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>300</v>
@@ -1929,7 +2069,7 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
+          <t>Taxes &amp; Fees</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1938,7 +2078,7 @@
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>49.92</v>
+        <v>64.2</v>
       </c>
       <c r="H29" s="5" t="n">
         <v>300</v>
@@ -1946,7 +2086,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45888</v>
+        <v>45880</v>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -1960,12 +2100,12 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>1020070</t>
+          <t>9163809259</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>5"SCH10 PIPE(5.563"X.134")</t>
+          <t>7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1974,7 +2114,7 @@
         </is>
       </c>
       <c r="G30" s="4" t="n">
-        <v>5488.64</v>
+        <v>49.92</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>300</v>
@@ -2001,7 +2141,7 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>3"SCH 40 A500B/A53B NON-HYDRO</t>
+          <t>5"SCH10 PIPE(5.563"X.134")</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -2010,7 +2150,7 @@
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>6174</v>
+        <v>5488.64</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>300</v>
@@ -2037,7 +2177,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>2"SCH 40 A500B/A53B NON-HYDRO</t>
+          <t>3"SCH 40 A500B/A53B NON-HYDRO</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -2046,7 +2186,7 @@
         </is>
       </c>
       <c r="G32" s="4" t="n">
-        <v>846.72</v>
+        <v>6174</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>300</v>
@@ -2054,35 +2194,35 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>1020070</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>San Jose 8/19 - 8/20</t>
+          <t>2"SCH 40 A500B/A53B NON-HYDRO</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
-        <v>138.81</v>
+        <v>846.72</v>
       </c>
       <c r="H33" s="5" t="n">
         <v>300</v>
@@ -2090,35 +2230,35 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45891</v>
+        <v>45889</v>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>16758</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 8/25/2025 - 8/31/2025</t>
+          <t>San Jose 8/19 - 8/20</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>100</v>
+        <v>138.81</v>
       </c>
       <c r="H34" s="5" t="n">
         <v>300</v>
@@ -2126,35 +2266,35 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>(E)430000</t>
+          <t>16758</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>5 STD WELD CAP</t>
+          <t>Gordon Doull Per diem for week of 8/25/2025 - 8/31/2025</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>149.53</v>
+        <v>100</v>
       </c>
       <c r="H35" s="5" t="n">
         <v>300</v>
@@ -2181,7 +2321,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>3 STD WELD CAP</t>
+          <t>5 STD WELD CAP</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
@@ -2190,7 +2330,7 @@
         </is>
       </c>
       <c r="G36" s="4" t="n">
-        <v>16.98</v>
+        <v>149.53</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>300</v>
@@ -2217,7 +2357,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>1 1/4 STD WELD CAP</t>
+          <t>3 STD WELD CAP</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -2226,7 +2366,7 @@
         </is>
       </c>
       <c r="G37" s="4" t="n">
-        <v>67.06999999999999</v>
+        <v>16.98</v>
       </c>
       <c r="H37" s="5" t="n">
         <v>300</v>
@@ -2253,7 +2393,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>2 X 6 BLK S-40 NIPPLE</t>
+          <t>1 1/4 STD WELD CAP</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
@@ -2262,7 +2402,7 @@
         </is>
       </c>
       <c r="G38" s="4" t="n">
-        <v>147.53</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>300</v>
@@ -2289,7 +2429,7 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>3 X 6 BLK S-40 NIPPLE</t>
+          <t>2 X 6 BLK S-40 NIPPLE</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -2298,7 +2438,7 @@
         </is>
       </c>
       <c r="G39" s="4" t="n">
-        <v>286.88</v>
+        <v>147.53</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>300</v>
@@ -2325,7 +2465,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>TAx</t>
+          <t>3 X 6 BLK S-40 NIPPLE</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -2334,7 +2474,7 @@
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>51.77</v>
+        <v>286.88</v>
       </c>
       <c r="H40" s="5" t="n">
         <v>300</v>
@@ -2346,7 +2486,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2361,7 +2501,7 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>TAx</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -2370,7 +2510,7 @@
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>15</v>
+        <v>51.77</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>300</v>
@@ -2378,7 +2518,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
@@ -2392,12 +2532,12 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>2931578</t>
+          <t>(E)430000</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>NY to San Jose</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -2406,7 +2546,7 @@
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>2750</v>
+        <v>15</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>300</v>
@@ -2414,11 +2554,11 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2428,12 +2568,12 @@
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>1020430</t>
+          <t>2931578</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>5"SCH10 PIPE</t>
+          <t>NY to San Jose</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -2442,7 +2582,7 @@
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>3124.8</v>
+        <v>2750</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>300</v>
@@ -2450,11 +2590,11 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2464,12 +2604,12 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>252549305-001</t>
+          <t>1020430</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>5"SCH10 PIPE</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -2478,7 +2618,7 @@
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>58.1</v>
+        <v>3124.8</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>300</v>
@@ -2505,7 +2645,7 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick up charge</t>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -2514,7 +2654,7 @@
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>370</v>
+        <v>58.1</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>300</v>
@@ -2541,7 +2681,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>Delivery &amp; Pick up charge</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -2550,7 +2690,7 @@
         </is>
       </c>
       <c r="G46" s="4" t="n">
-        <v>108.6</v>
+        <v>370</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>300</v>
@@ -2577,7 +2717,7 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>50 FENCE COVER</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
@@ -2586,7 +2726,7 @@
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>150</v>
+        <v>108.6</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>300</v>
@@ -2594,11 +2734,11 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2608,12 +2748,12 @@
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>252549305-001</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
+          <t>50 FENCE COVER</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
@@ -2622,7 +2762,7 @@
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>219.18</v>
+        <v>150</v>
       </c>
       <c r="H48" s="5" t="n">
         <v>300</v>
@@ -2649,7 +2789,7 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
+          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -2658,7 +2798,7 @@
         </is>
       </c>
       <c r="G49" s="4" t="n">
-        <v>142.08</v>
+        <v>219.18</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>300</v>
@@ -2685,7 +2825,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Single Sided Cotton Welder's Cap</t>
+          <t xml:space="preserve"> 7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -2694,7 +2834,7 @@
         </is>
       </c>
       <c r="G50" s="4" t="n">
-        <v>15.36</v>
+        <v>142.08</v>
       </c>
       <c r="H50" s="5" t="n">
         <v>300</v>
@@ -2721,7 +2861,7 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>Brown Top Grain Goatskin And Split Cowhide</t>
+          <t>Single Sided Cotton Welder's Cap</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
@@ -2730,7 +2870,7 @@
         </is>
       </c>
       <c r="G51" s="4" t="n">
-        <v>109.92</v>
+        <v>15.36</v>
       </c>
       <c r="H51" s="5" t="n">
         <v>300</v>
@@ -2757,7 +2897,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Tax &amp; HazMat Charge</t>
+          <t>Brown Top Grain Goatskin And Split Cowhide</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
@@ -2766,7 +2906,7 @@
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>94.47</v>
+        <v>109.92</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>300</v>
@@ -2793,7 +2933,7 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
+          <t>Tax &amp; HazMat Charge</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
@@ -2802,7 +2942,7 @@
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>61.35</v>
+        <v>94.47</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>300</v>
@@ -2810,11 +2950,11 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2824,17 +2964,21 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>738955</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr"/>
+          <t>9164700138</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
+        </is>
+      </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>14115</v>
+        <v>61.35</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>300</v>
@@ -2842,35 +2986,35 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45912</v>
+        <v>45910</v>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>EE_091225</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>uber to and from airport</t>
+          <t>Hoa Ma San Jose</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>110.94</v>
+        <v>236.86</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>300</v>
@@ -2878,35 +3022,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>Eric Ma Per diem for week of 9/15/2025 - 9/21/2025</t>
-        </is>
-      </c>
+          <t>738955</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr"/>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
-        <v>150</v>
+        <v>14115</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>300</v>
@@ -2914,35 +3054,35 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>EE_091225</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>uber to and from airport</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>150</v>
+        <v>110.94</v>
       </c>
       <c r="H57" s="5" t="n">
         <v>300</v>
@@ -2969,7 +3109,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Iain Cowie Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Eric Ma Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
@@ -2986,7 +3126,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
@@ -3000,12 +3140,12 @@
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Gordon Doull Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
@@ -3014,46 +3154,46 @@
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>174547431-0001</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>DLPKSRCHG</t>
+          <t>Iain Cowie Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61">
@@ -3062,31 +3202,31 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>174547431-0001</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up Charge</t>
+          <t>Levi Winslow Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>400</v>
@@ -3111,14 +3251,18 @@
           <t>174547431-0001</t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr"/>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>DLPKSRCHG</t>
+        </is>
+      </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>25.5</v>
+        <v>72</v>
       </c>
       <c r="H62" s="5" t="n">
         <v>400</v>
@@ -3130,7 +3274,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3140,12 +3284,12 @@
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>2962520</t>
+          <t>174547431-0001</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>NY to San Jose</t>
+          <t>Delivery &amp; Pick Up Charge</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
@@ -3154,7 +3298,7 @@
         </is>
       </c>
       <c r="G63" s="4" t="n">
-        <v>1450</v>
+        <v>400</v>
       </c>
       <c r="H63" s="5" t="n">
         <v>400</v>
@@ -3162,11 +3306,11 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3176,21 +3320,17 @@
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>CAP,PULL 1.25“ GP RODS</t>
-        </is>
-      </c>
+          <t>174547431-0001</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr"/>
       <c r="F64" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>50</v>
+        <v>25.5</v>
       </c>
       <c r="H64" s="5" t="n">
         <v>400</v>
@@ -3198,11 +3338,11 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -3212,12 +3352,12 @@
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
+          <t>2962520</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>NY to San Jose</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
@@ -3226,7 +3366,7 @@
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>97.52</v>
+        <v>1450</v>
       </c>
       <c r="H65" s="5" t="n">
         <v>400</v>
@@ -3238,7 +3378,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>5116 · Rent - Storage (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -3253,7 +3393,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>ROD,PROBE 1.25“ X 5‘</t>
+          <t>CAP,PULL 1.25“ GP RODS</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
@@ -3262,7 +3402,7 @@
         </is>
       </c>
       <c r="G66" s="4" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="H66" s="5" t="n">
         <v>400</v>
@@ -3270,7 +3410,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
@@ -3284,12 +3424,12 @@
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>SI-11HPU007130</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>PLUG,AUGER 6 1/4 3ª THICK  WOOD</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
@@ -3298,7 +3438,7 @@
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>640</v>
+        <v>97.52</v>
       </c>
       <c r="H67" s="5" t="n">
         <v>400</v>
@@ -3306,11 +3446,11 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5116 · Rent - Storage (Direct)</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3320,12 +3460,12 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>SI-11HPU007130</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>PLUG,AUGER 4 1/4 THICK WOOD-CAS</t>
+          <t>ROD,PROBE 1.25“ X 5‘</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -3334,7 +3474,7 @@
         </is>
       </c>
       <c r="G68" s="4" t="n">
-        <v>332.5</v>
+        <v>990</v>
       </c>
       <c r="H68" s="5" t="n">
         <v>400</v>
@@ -3361,7 +3501,7 @@
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>BOLT,AUGER 2KEY 3 1/4 - 8 1/4 HD &amp; 4 1/4 - 7 1/4 XHD</t>
+          <t>PLUG,AUGER 6 1/4 3ª THICK  WOOD</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
@@ -3370,7 +3510,7 @@
         </is>
       </c>
       <c r="G69" s="4" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>400</v>
@@ -3397,7 +3537,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>UPIN,1 5/8 HEX (5/8X2 3/8 STD)</t>
+          <t>PLUG,AUGER 4 1/4 THICK WOOD-CAS</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
@@ -3406,7 +3546,7 @@
         </is>
       </c>
       <c r="G70" s="4" t="n">
-        <v>34.98</v>
+        <v>332.5</v>
       </c>
       <c r="H70" s="5" t="n">
         <v>400</v>
@@ -3433,7 +3573,7 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>TEETH,5T FORGED</t>
+          <t>BOLT,AUGER 2KEY 3 1/4 - 8 1/4 HD &amp; 4 1/4 - 7 1/4 XHD</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
@@ -3442,7 +3582,7 @@
         </is>
       </c>
       <c r="G71" s="4" t="n">
-        <v>1050</v>
+        <v>200</v>
       </c>
       <c r="H71" s="5" t="n">
         <v>400</v>
@@ -3469,7 +3609,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 6 1/4 2KEY BULLET HD</t>
+          <t>UPIN,1 5/8 HEX (5/8X2 3/8 STD)</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -3478,7 +3618,7 @@
         </is>
       </c>
       <c r="G72" s="4" t="n">
-        <v>937.51</v>
+        <v>34.98</v>
       </c>
       <c r="H72" s="5" t="n">
         <v>400</v>
@@ -3505,7 +3645,7 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>TEETH,5T FORGED</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
@@ -3514,7 +3654,7 @@
         </is>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>400</v>
@@ -3541,7 +3681,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
+          <t>HEAD,HSA 6 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -3550,7 +3690,7 @@
         </is>
       </c>
       <c r="G74" s="4" t="n">
-        <v>3960</v>
+        <v>937.51</v>
       </c>
       <c r="H74" s="5" t="n">
         <v>400</v>
@@ -3577,7 +3717,7 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
+          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -3586,7 +3726,7 @@
         </is>
       </c>
       <c r="G75" s="4" t="n">
-        <v>266.75</v>
+        <v>1400</v>
       </c>
       <c r="H75" s="5" t="n">
         <v>400</v>
@@ -3613,7 +3753,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>HSA,8 1/4 2KEY HD 5FT</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
@@ -3622,7 +3762,7 @@
         </is>
       </c>
       <c r="G76" s="4" t="n">
-        <v>480</v>
+        <v>3960</v>
       </c>
       <c r="H76" s="5" t="n">
         <v>400</v>
@@ -3649,7 +3789,7 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
@@ -3658,7 +3798,7 @@
         </is>
       </c>
       <c r="G77" s="4" t="n">
-        <v>872.0700000000001</v>
+        <v>266.75</v>
       </c>
       <c r="H77" s="5" t="n">
         <v>400</v>
@@ -3675,17 +3815,17 @@
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
@@ -3694,7 +3834,7 @@
         </is>
       </c>
       <c r="G78" s="4" t="n">
-        <v>-1400</v>
+        <v>480</v>
       </c>
       <c r="H78" s="5" t="n">
         <v>400</v>
@@ -3711,17 +3851,17 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
@@ -3730,7 +3870,7 @@
         </is>
       </c>
       <c r="G79" s="4" t="n">
-        <v>-3960</v>
+        <v>872.0700000000001</v>
       </c>
       <c r="H79" s="5" t="n">
         <v>400</v>
@@ -3757,7 +3897,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -3766,7 +3906,7 @@
         </is>
       </c>
       <c r="G80" s="4" t="n">
-        <v>-502.5</v>
+        <v>-1400</v>
       </c>
       <c r="H80" s="5" t="n">
         <v>400</v>
@@ -3793,7 +3933,7 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>HSA,8 1/4 2KEY HD 5FT</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
@@ -3802,7 +3942,7 @@
         </is>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1400</v>
+        <v>-3960</v>
       </c>
       <c r="H81" s="5" t="n">
         <v>400</v>
@@ -3829,7 +3969,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -3838,7 +3978,7 @@
         </is>
       </c>
       <c r="G82" s="4" t="n">
-        <v>3960</v>
+        <v>-502.5</v>
       </c>
       <c r="H82" s="5" t="n">
         <v>400</v>
@@ -3865,7 +4005,7 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
@@ -3874,7 +4014,7 @@
         </is>
       </c>
       <c r="G83" s="4" t="n">
-        <v>502.5</v>
+        <v>1400</v>
       </c>
       <c r="H83" s="5" t="n">
         <v>400</v>
@@ -3886,22 +4026,22 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 4 1/4 2KEY BULLET HD(4 SM07 CUTTERS)</t>
+          <t>HSA,8 1/4 2KEY HD 5FT</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3910,7 +4050,7 @@
         </is>
       </c>
       <c r="G84" s="4" t="n">
-        <v>500</v>
+        <v>3960</v>
       </c>
       <c r="H84" s="5" t="n">
         <v>400</v>
@@ -3922,22 +4062,22 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>HSA,6 1/4 2 KEY HD X 5FT</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -3946,7 +4086,7 @@
         </is>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1880</v>
+        <v>502.5</v>
       </c>
       <c r="H85" s="5" t="n">
         <v>400</v>
@@ -3973,7 +4113,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>HEAD,HSA 4 1/4 2KEY BULLET HD(4 SM07 CUTTERS)</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -3982,7 +4122,7 @@
         </is>
       </c>
       <c r="G86" s="4" t="n">
-        <v>223.13</v>
+        <v>500</v>
       </c>
       <c r="H86" s="5" t="n">
         <v>400</v>
@@ -3990,35 +4130,35 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>HSA,6 1/4 2 KEY HD X 5FT</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
-        <v>350</v>
+        <v>1880</v>
       </c>
       <c r="H87" s="5" t="n">
         <v>400</v>
@@ -4026,35 +4166,35 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
-        <v>350</v>
+        <v>223.13</v>
       </c>
       <c r="H88" s="5" t="n">
         <v>400</v>
@@ -4062,181 +4202,1537 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>Michael Hyatt Per diem for week of 9/29/2025 - 10/5/2025</t>
-        </is>
-      </c>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2323 · Shell Credit Card - WEX</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
-        <v>350</v>
+        <v>105.27</v>
       </c>
       <c r="H89" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>HOODED COVERALLS,XL,WHITE,BULK,PK25</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
-        <v>350</v>
+        <v>65.2</v>
       </c>
       <c r="H90" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>HOODED COVERALLS,L,WHITE,BULK,PK25</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
-        <v>100</v>
+        <v>63.73</v>
       </c>
       <c r="H91" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>SPILL KIT</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
-        <v>50</v>
+        <v>398.32</v>
       </c>
       <c r="H92" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>9655231844</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>ABSORB PAD,OIL-BASED LIQUIDS,WHITE,PK20</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>71.36</v>
+      </c>
+      <c r="H93" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>9655231844</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>56.12</v>
+      </c>
+      <c r="H94" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>9654451104</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>HALF MASK RESPIRATOR,ELASTOMER,BLACK</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="H95" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>9654451104</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>COMBINATION CARTRIDGE/FILTER,THREADED,PR</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>196.74</v>
+      </c>
+      <c r="H96" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>9654451104</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="H97" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr"/>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>2323 · Shell Credit Card - WEX</t>
+        </is>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>119.53</v>
+      </c>
+      <c r="H98" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>16772</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>Levi Winslow Per diem for week of 9/29/2025 - 10/5/2025</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H99" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>16772</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>Luke Giguere Per diem for week of 9/29/2025 - 10/5/2025</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H100" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>16772</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 9/29/2025 - 10/5/2025</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H101" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>16772</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Mike Cogswell Per diem for week of 9/29/2025 - 10/5/2025</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H102" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>SI-11HPU007182</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>SAND,#3 50LB KLEEN LAPIS GOLD</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>5409.6</v>
+      </c>
+      <c r="H103" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>SI-11HPU007182</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G104" s="4" t="n">
+        <v>512.16</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>SI-11HPU007182</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>CAP,DRIVE AUGER 4 1/4 2KEY HD 1 5/8 HEX</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="H105" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>SI-11HPU007182</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G106" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H106" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>SI-11HPU007182</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>620.8099999999999</v>
+      </c>
+      <c r="H107" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-003</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Load &amp; Ship to Site</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H108" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>252549305-002</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H109" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>252549305-002</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>Fence Wheel and weight</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H110" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>252549305-002</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>Service Charge and Tax</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="H111" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>45933</v>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>General Journal</t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>16773</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H112" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>16773</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H113" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>16773</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
         <is>
           <t>Michael Hyatt Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
-      <c r="F93" s="3" t="inlineStr">
+      <c r="F114" s="3" t="inlineStr">
         <is>
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G93" s="4" t="n">
+      <c r="G114" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="H93" s="5" t="n">
+      <c r="H114" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0002</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>DUCT JACK/MATERIAL 24'-26'</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>755</v>
+      </c>
+      <c r="H115" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0002</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>DSL TRACK MINI SKIDSTEER</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>2965</v>
+      </c>
+      <c r="H116" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0002</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>4695</v>
+      </c>
+      <c r="H117" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0002</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Delivery &amp; PickUp</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>440</v>
+      </c>
+      <c r="H118" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0002</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Fees &amp; tax</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>1041.93</v>
+      </c>
+      <c r="H119" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>5006 · Drilling Expense</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>738975</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr"/>
+      <c r="F120" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H120" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Mike Cogswell Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H121" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Shane Morris Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H122" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H123" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Wyatt Staples Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F124" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H124" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H125" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H126" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>1504 · Undeposited Funds</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>35191</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>45072</v>
+      </c>
+      <c r="H127" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F128" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H128" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>Gordon Doull Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F129" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H129" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F130" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G130" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H130" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G131" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H131" s="5" t="n">
         <v>400</v>
       </c>
     </row>

--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -467,7 +467,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
@@ -1020,6 +1020,1266 @@
       </c>
       <c r="H15" s="5" t="n">
         <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Travel - return from Orange to San Jose</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>3263.84</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Rental Vehicle plus mileage</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Third Party Concrete Coring Services</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Travel - return from San Jose to Orange</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Field Vehicle</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-005</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Travel - return from Orange to San Jose</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-005</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Rental Vehicle plus mileage</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-006</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Travel return to Orange</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>1631.92</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-006</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Rental Vehicle plus mileage</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Fuel surcharge (3%)</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>4070.7</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-005</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Tools Rental - ladder</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-005</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Tools Rental - scissor lift</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-006</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Seven Month rental for Temp Fencing</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>1950</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Forklift delivery/pickup</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Forklift and hopper</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>12285</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Mobilization/Demobilization</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Auger Drilling Services Crew</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>118800</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Support Truck</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>14850</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Prevailing wage surcharge</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>6682.5</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Backfill sand</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>22955.31</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>50 lb Portland Cement</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>581.58</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>3/8" Bentonite Chips</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>282.15</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Decon augers</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>945</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>4 1/4" wood plugs</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>891</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>5 6/8" wood plugs</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>874.8</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-008</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Drilling &amp; Plenum Construction Oversite and Subsurface Installation Labor</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>93610.84</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Well Location Marking Technician</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>1360</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Per Diem</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Coring Oversight Technician</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>6800</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-004</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Per Diem</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-005</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>Paint Booth Demo &amp; Removal Technician</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>1360</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-005</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Per Diem</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-006</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>GEO Field Tech to set up fence</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>1360</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-006</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Per Diem</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-007</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Per Diem 43.56 overnight stays @ $150</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>6534</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2306,31 +3566,31 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>(E)430000</t>
+          <t>35545</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>5 STD WELD CAP</t>
+          <t>NGSJ25-001</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1504 · Undeposited Funds</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
-        <v>149.53</v>
+        <v>51408</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>300</v>
@@ -2357,7 +3617,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>3 STD WELD CAP</t>
+          <t>5 STD WELD CAP</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -2366,7 +3626,7 @@
         </is>
       </c>
       <c r="G37" s="4" t="n">
-        <v>16.98</v>
+        <v>149.53</v>
       </c>
       <c r="H37" s="5" t="n">
         <v>300</v>
@@ -2393,7 +3653,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>1 1/4 STD WELD CAP</t>
+          <t>3 STD WELD CAP</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
@@ -2402,7 +3662,7 @@
         </is>
       </c>
       <c r="G38" s="4" t="n">
-        <v>67.06999999999999</v>
+        <v>16.98</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>300</v>
@@ -2429,7 +3689,7 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>2 X 6 BLK S-40 NIPPLE</t>
+          <t>1 1/4 STD WELD CAP</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -2438,7 +3698,7 @@
         </is>
       </c>
       <c r="G39" s="4" t="n">
-        <v>147.53</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>300</v>
@@ -2465,7 +3725,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>3 X 6 BLK S-40 NIPPLE</t>
+          <t>2 X 6 BLK S-40 NIPPLE</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -2474,7 +3734,7 @@
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>286.88</v>
+        <v>147.53</v>
       </c>
       <c r="H40" s="5" t="n">
         <v>300</v>
@@ -2501,7 +3761,7 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>TAx</t>
+          <t>3 X 6 BLK S-40 NIPPLE</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -2510,7 +3770,7 @@
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>51.77</v>
+        <v>286.88</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>300</v>
@@ -2522,7 +3782,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2537,7 +3797,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>TAx</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -2546,7 +3806,7 @@
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>15</v>
+        <v>51.77</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>300</v>
@@ -2554,7 +3814,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
@@ -2568,12 +3828,12 @@
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>2931578</t>
+          <t>(E)430000</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>NY to San Jose</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -2582,7 +3842,7 @@
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>2750</v>
+        <v>15</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>300</v>
@@ -2590,11 +3850,11 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2604,12 +3864,12 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>1020430</t>
+          <t>2931578</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>5"SCH10 PIPE</t>
+          <t>NY to San Jose</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -2618,7 +3878,7 @@
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>3124.8</v>
+        <v>2750</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>300</v>
@@ -2626,11 +3886,11 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2640,12 +3900,12 @@
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>252549305-001</t>
+          <t>1020430</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>5"SCH10 PIPE</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -2654,7 +3914,7 @@
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>58.1</v>
+        <v>3124.8</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>300</v>
@@ -2681,7 +3941,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick up charge</t>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -2690,7 +3950,7 @@
         </is>
       </c>
       <c r="G46" s="4" t="n">
-        <v>370</v>
+        <v>58.1</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>300</v>
@@ -2717,7 +3977,7 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>Delivery &amp; Pick up charge</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
@@ -2726,7 +3986,7 @@
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>108.6</v>
+        <v>370</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>300</v>
@@ -2753,7 +4013,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>50 FENCE COVER</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
@@ -2762,7 +4022,7 @@
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>150</v>
+        <v>108.6</v>
       </c>
       <c r="H48" s="5" t="n">
         <v>300</v>
@@ -2770,11 +4030,11 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2784,12 +4044,12 @@
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>252549305-001</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
+          <t>50 FENCE COVER</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -2798,7 +4058,7 @@
         </is>
       </c>
       <c r="G49" s="4" t="n">
-        <v>219.18</v>
+        <v>150</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>300</v>
@@ -2806,35 +4066,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>9164700138</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
+          <t>Eric Ma 	Hotel- 9/8-9/11</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
-        <v>142.08</v>
+        <v>278</v>
       </c>
       <c r="H50" s="5" t="n">
         <v>300</v>
@@ -2842,35 +4098,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>9164700138</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>Single Sided Cotton Welder's Cap</t>
+          <t>Eric Ma	 Flight- ONT to SJC 9/8- SJC to ONT 9/11</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
-        <v>15.36</v>
+        <v>672.96</v>
       </c>
       <c r="H51" s="5" t="n">
         <v>300</v>
@@ -2897,7 +4149,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Brown Top Grain Goatskin And Split Cowhide</t>
+          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
@@ -2906,7 +4158,7 @@
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>109.92</v>
+        <v>219.18</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>300</v>
@@ -2933,7 +4185,7 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Tax &amp; HazMat Charge</t>
+          <t xml:space="preserve"> 7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
@@ -2942,7 +4194,7 @@
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>94.47</v>
+        <v>142.08</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>300</v>
@@ -2969,7 +4221,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
+          <t>Single Sided Cotton Welder's Cap</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
@@ -2978,7 +4230,7 @@
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>61.35</v>
+        <v>15.36</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>300</v>
@@ -2986,35 +4238,35 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>9164700138</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>Hoa Ma San Jose</t>
+          <t>Brown Top Grain Goatskin And Split Cowhide</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>236.86</v>
+        <v>109.92</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>300</v>
@@ -3022,11 +4274,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3036,17 +4288,21 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>738955</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr"/>
+          <t>9164700138</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Tax &amp; HazMat Charge</t>
+        </is>
+      </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
-        <v>14115</v>
+        <v>94.47</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>300</v>
@@ -3054,35 +4310,35 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>EE_091225</t>
+          <t>9164700138</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>uber to and from airport</t>
+          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>110.94</v>
+        <v>61.35</v>
       </c>
       <c r="H57" s="5" t="n">
         <v>300</v>
@@ -3090,35 +4346,35 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Eric Ma Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Hoa Ma San Jose</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
-        <v>150</v>
+        <v>236.86</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>300</v>
@@ -3126,35 +4382,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>Gordon Doull Per diem for week of 9/15/2025 - 9/21/2025</t>
-        </is>
-      </c>
+          <t>738955</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr"/>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>150</v>
+        <v>14115</v>
       </c>
       <c r="H59" s="5" t="n">
         <v>300</v>
@@ -3162,35 +4414,35 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>EE_091225</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Iain Cowie Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>uber to and from airport</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>150</v>
+        <v>110.94</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>300</v>
@@ -3198,7 +4450,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
@@ -3212,12 +4464,12 @@
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Eric Ma Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
@@ -3226,183 +4478,179 @@
         </is>
       </c>
       <c r="G61" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H61" s="5" t="n">
         <v>300</v>
-      </c>
-      <c r="H61" s="5" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>174547431-0001</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>DLPKSRCHG</t>
+          <t>Gordon Doull Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>174547431-0001</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up Charge</t>
+          <t>Iain Cowie Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45922</v>
+        <v>45916</v>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>174547431-0001</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr"/>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr"/>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Michael H &amp; Vace V	 Hotel- 9/21-10/5</t>
+        </is>
+      </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>25.5</v>
+        <v>3463.04</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45922</v>
+        <v>45918</v>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>2962520</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>NY to San Jose</t>
+          <t>Brian V	 Hotel- 9/24-10/1</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>1450</v>
+        <v>945.5599999999999</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>CAP,PULL 1.25“ GP RODS</t>
+          <t>Levi Winslow Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H66" s="5" t="n">
         <v>400</v>
@@ -3410,11 +4658,11 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -3424,12 +4672,12 @@
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
+          <t>174547431-0001</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>DLPKSRCHG</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
@@ -3438,7 +4686,7 @@
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>97.52</v>
+        <v>72</v>
       </c>
       <c r="H67" s="5" t="n">
         <v>400</v>
@@ -3446,11 +4694,11 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>5116 · Rent - Storage (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3460,12 +4708,12 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
+          <t>174547431-0001</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>ROD,PROBE 1.25“ X 5‘</t>
+          <t>Delivery &amp; Pick Up Charge</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -3474,7 +4722,7 @@
         </is>
       </c>
       <c r="G68" s="4" t="n">
-        <v>990</v>
+        <v>400</v>
       </c>
       <c r="H68" s="5" t="n">
         <v>400</v>
@@ -3482,11 +4730,11 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -3496,21 +4744,17 @@
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>PLUG,AUGER 6 1/4 3ª THICK  WOOD</t>
-        </is>
-      </c>
+          <t>174547431-0001</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr"/>
       <c r="F69" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
-        <v>640</v>
+        <v>25.5</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>400</v>
@@ -3518,11 +4762,11 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3532,12 +4776,12 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>2962520</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>PLUG,AUGER 4 1/4 THICK WOOD-CAS</t>
+          <t>NY to San Jose</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
@@ -3546,7 +4790,7 @@
         </is>
       </c>
       <c r="G70" s="4" t="n">
-        <v>332.5</v>
+        <v>1450</v>
       </c>
       <c r="H70" s="5" t="n">
         <v>400</v>
@@ -3554,7 +4798,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
@@ -3568,12 +4812,12 @@
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>SI-11HPU007130</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>BOLT,AUGER 2KEY 3 1/4 - 8 1/4 HD &amp; 4 1/4 - 7 1/4 XHD</t>
+          <t>CAP,PULL 1.25“ GP RODS</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
@@ -3582,7 +4826,7 @@
         </is>
       </c>
       <c r="G71" s="4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H71" s="5" t="n">
         <v>400</v>
@@ -3590,7 +4834,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
@@ -3604,12 +4848,12 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>SI-11HPU007130</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>UPIN,1 5/8 HEX (5/8X2 3/8 STD)</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -3618,7 +4862,7 @@
         </is>
       </c>
       <c r="G72" s="4" t="n">
-        <v>34.98</v>
+        <v>97.52</v>
       </c>
       <c r="H72" s="5" t="n">
         <v>400</v>
@@ -3626,11 +4870,11 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5116 · Rent - Storage (Direct)</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3640,12 +4884,12 @@
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>SI-11HPU007130</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>TEETH,5T FORGED</t>
+          <t>ROD,PROBE 1.25“ X 5‘</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
@@ -3654,7 +4898,7 @@
         </is>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>400</v>
@@ -3681,7 +4925,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 6 1/4 2KEY BULLET HD</t>
+          <t>PLUG,AUGER 6 1/4 3ª THICK  WOOD</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -3690,7 +4934,7 @@
         </is>
       </c>
       <c r="G74" s="4" t="n">
-        <v>937.51</v>
+        <v>640</v>
       </c>
       <c r="H74" s="5" t="n">
         <v>400</v>
@@ -3717,7 +4961,7 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>PLUG,AUGER 4 1/4 THICK WOOD-CAS</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -3726,7 +4970,7 @@
         </is>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1400</v>
+        <v>332.5</v>
       </c>
       <c r="H75" s="5" t="n">
         <v>400</v>
@@ -3753,7 +4997,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
+          <t>BOLT,AUGER 2KEY 3 1/4 - 8 1/4 HD &amp; 4 1/4 - 7 1/4 XHD</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
@@ -3762,7 +5006,7 @@
         </is>
       </c>
       <c r="G76" s="4" t="n">
-        <v>3960</v>
+        <v>200</v>
       </c>
       <c r="H76" s="5" t="n">
         <v>400</v>
@@ -3789,7 +5033,7 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
+          <t>UPIN,1 5/8 HEX (5/8X2 3/8 STD)</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
@@ -3798,7 +5042,7 @@
         </is>
       </c>
       <c r="G77" s="4" t="n">
-        <v>266.75</v>
+        <v>34.98</v>
       </c>
       <c r="H77" s="5" t="n">
         <v>400</v>
@@ -3825,7 +5069,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>TEETH,5T FORGED</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
@@ -3834,7 +5078,7 @@
         </is>
       </c>
       <c r="G78" s="4" t="n">
-        <v>480</v>
+        <v>1050</v>
       </c>
       <c r="H78" s="5" t="n">
         <v>400</v>
@@ -3861,7 +5105,7 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>HEAD,HSA 6 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
@@ -3870,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" s="4" t="n">
-        <v>872.0700000000001</v>
+        <v>937.51</v>
       </c>
       <c r="H79" s="5" t="n">
         <v>400</v>
@@ -3887,12 +5131,12 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -3906,7 +5150,7 @@
         </is>
       </c>
       <c r="G80" s="4" t="n">
-        <v>-1400</v>
+        <v>1400</v>
       </c>
       <c r="H80" s="5" t="n">
         <v>400</v>
@@ -3923,12 +5167,12 @@
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -3942,7 +5186,7 @@
         </is>
       </c>
       <c r="G81" s="4" t="n">
-        <v>-3960</v>
+        <v>3960</v>
       </c>
       <c r="H81" s="5" t="n">
         <v>400</v>
@@ -3959,17 +5203,17 @@
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -3978,7 +5222,7 @@
         </is>
       </c>
       <c r="G82" s="4" t="n">
-        <v>-502.5</v>
+        <v>266.75</v>
       </c>
       <c r="H82" s="5" t="n">
         <v>400</v>
@@ -3995,17 +5239,17 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
@@ -4014,7 +5258,7 @@
         </is>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1400</v>
+        <v>480</v>
       </c>
       <c r="H83" s="5" t="n">
         <v>400</v>
@@ -4031,17 +5275,17 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -4050,7 +5294,7 @@
         </is>
       </c>
       <c r="G84" s="4" t="n">
-        <v>3960</v>
+        <v>872.0700000000001</v>
       </c>
       <c r="H84" s="5" t="n">
         <v>400</v>
@@ -4077,7 +5321,7 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -4086,7 +5330,7 @@
         </is>
       </c>
       <c r="G85" s="4" t="n">
-        <v>502.5</v>
+        <v>-1400</v>
       </c>
       <c r="H85" s="5" t="n">
         <v>400</v>
@@ -4098,22 +5342,22 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 4 1/4 2KEY BULLET HD(4 SM07 CUTTERS)</t>
+          <t>HSA,8 1/4 2KEY HD 5FT</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -4122,7 +5366,7 @@
         </is>
       </c>
       <c r="G86" s="4" t="n">
-        <v>500</v>
+        <v>-3960</v>
       </c>
       <c r="H86" s="5" t="n">
         <v>400</v>
@@ -4134,22 +5378,22 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>HSA,6 1/4 2 KEY HD X 5FT</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -4158,7 +5402,7 @@
         </is>
       </c>
       <c r="G87" s="4" t="n">
-        <v>1880</v>
+        <v>-502.5</v>
       </c>
       <c r="H87" s="5" t="n">
         <v>400</v>
@@ -4170,22 +5414,22 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
@@ -4194,7 +5438,7 @@
         </is>
       </c>
       <c r="G88" s="4" t="n">
-        <v>223.13</v>
+        <v>1400</v>
       </c>
       <c r="H88" s="5" t="n">
         <v>400</v>
@@ -4206,54 +5450,58 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>5123 · Auto fuel (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>BV</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr"/>
+          <t>CM-11HPU000099</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>HSA,8 1/4 2KEY HD 5FT</t>
+        </is>
+      </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>2323 · Shell Credit Card - WEX</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
-        <v>105.27</v>
+        <v>3960</v>
       </c>
       <c r="H89" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>HOODED COVERALLS,XL,WHITE,BULK,PK25</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
@@ -4262,15 +5510,15 @@
         </is>
       </c>
       <c r="G90" s="4" t="n">
-        <v>65.2</v>
+        <v>502.5</v>
       </c>
       <c r="H90" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
@@ -4284,12 +5532,12 @@
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>HOODED COVERALLS,L,WHITE,BULK,PK25</t>
+          <t>HEAD,HSA 4 1/4 2KEY BULLET HD(4 SM07 CUTTERS)</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
@@ -4298,15 +5546,15 @@
         </is>
       </c>
       <c r="G91" s="4" t="n">
-        <v>63.73</v>
+        <v>500</v>
       </c>
       <c r="H91" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
@@ -4320,12 +5568,12 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>SPILL KIT</t>
+          <t>HSA,6 1/4 2 KEY HD X 5FT</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
@@ -4334,15 +5582,15 @@
         </is>
       </c>
       <c r="G92" s="4" t="n">
-        <v>398.32</v>
+        <v>1880</v>
       </c>
       <c r="H92" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
@@ -4356,12 +5604,12 @@
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>ABSORB PAD,OIL-BASED LIQUIDS,WHITE,PK20</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
@@ -4370,43 +5618,39 @@
         </is>
       </c>
       <c r="G93" s="4" t="n">
-        <v>71.36</v>
+        <v>223.13</v>
       </c>
       <c r="H93" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2323 · Shell Credit Card - WEX</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
-        <v>56.12</v>
+        <v>105.27</v>
       </c>
       <c r="H94" s="5" t="n">
         <v>300</v>
@@ -4418,7 +5662,7 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -4428,12 +5672,12 @@
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>9654451104</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>HALF MASK RESPIRATOR,ELASTOMER,BLACK</t>
+          <t>HOODED COVERALLS,XL,WHITE,BULK,PK25</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
@@ -4442,7 +5686,7 @@
         </is>
       </c>
       <c r="G95" s="4" t="n">
-        <v>69.3</v>
+        <v>65.2</v>
       </c>
       <c r="H95" s="5" t="n">
         <v>300</v>
@@ -4454,7 +5698,7 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -4464,12 +5708,12 @@
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>9654451104</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>COMBINATION CARTRIDGE/FILTER,THREADED,PR</t>
+          <t>HOODED COVERALLS,L,WHITE,BULK,PK25</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
@@ -4478,7 +5722,7 @@
         </is>
       </c>
       <c r="G96" s="4" t="n">
-        <v>196.74</v>
+        <v>63.73</v>
       </c>
       <c r="H96" s="5" t="n">
         <v>300</v>
@@ -4490,7 +5734,7 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4500,12 +5744,12 @@
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>9654451104</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>SPILL KIT</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
@@ -4514,7 +5758,7 @@
         </is>
       </c>
       <c r="G97" s="4" t="n">
-        <v>24.94</v>
+        <v>398.32</v>
       </c>
       <c r="H97" s="5" t="n">
         <v>300</v>
@@ -4522,31 +5766,35 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45928</v>
+        <v>45925</v>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>5123 · Auto fuel (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>BV</t>
-        </is>
-      </c>
-      <c r="E98" s="3" t="inlineStr"/>
+          <t>9655231844</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>ABSORB PAD,OIL-BASED LIQUIDS,WHITE,PK20</t>
+        </is>
+      </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>2323 · Shell Credit Card - WEX</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
-        <v>119.53</v>
+        <v>71.36</v>
       </c>
       <c r="H98" s="5" t="n">
         <v>300</v>
@@ -4554,155 +5802,155 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G99" s="4" t="n">
-        <v>350</v>
+        <v>56.12</v>
       </c>
       <c r="H99" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>9654451104</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>HALF MASK RESPIRATOR,ELASTOMER,BLACK</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G100" s="4" t="n">
-        <v>350</v>
+        <v>69.3</v>
       </c>
       <c r="H100" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>9654451104</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>COMBINATION CARTRIDGE/FILTER,THREADED,PR</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
-        <v>350</v>
+        <v>196.74</v>
       </c>
       <c r="H101" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>9654451104</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
-        <v>350</v>
+        <v>24.94</v>
       </c>
       <c r="H102" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>6133.1 · Employee Expenses</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4712,12 +5960,12 @@
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>09-26-25</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>SAND,#3 50LB KLEEN LAPIS GOLD</t>
+          <t>Brian Vives - Santa Clara</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
@@ -4726,46 +5974,42 @@
         </is>
       </c>
       <c r="G103" s="4" t="n">
-        <v>5409.6</v>
+        <v>411.57</v>
       </c>
       <c r="H103" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45929</v>
+        <v>45928</v>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
-        </is>
-      </c>
-      <c r="E104" s="3" t="inlineStr">
-        <is>
-          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
-        </is>
-      </c>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr"/>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2323 · Shell Credit Card - WEX</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
-        <v>512.16</v>
+        <v>119.53</v>
       </c>
       <c r="H104" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105">
@@ -4774,31 +6018,31 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>CAP,DRIVE AUGER 4 1/4 2KEY HD 1 5/8 HEX</t>
+          <t>Levi Winslow Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="H105" s="5" t="n">
         <v>400</v>
@@ -4810,31 +6054,31 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>Luke Giguere Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H106" s="5" t="n">
         <v>400</v>
@@ -4846,31 +6090,31 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Michael Hyatt Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
-        <v>620.8099999999999</v>
+        <v>350</v>
       </c>
       <c r="H107" s="5" t="n">
         <v>400</v>
@@ -4878,35 +6122,35 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>NGSJ25-003</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Load &amp; Ship to Site</t>
+          <t>Mike Cogswell Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="H108" s="5" t="n">
         <v>400</v>
@@ -4914,11 +6158,11 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45932</v>
+        <v>45929</v>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -4928,12 +6172,12 @@
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>SAND,#3 50LB KLEEN LAPIS GOLD</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
@@ -4942,7 +6186,7 @@
         </is>
       </c>
       <c r="G109" s="4" t="n">
-        <v>58.1</v>
+        <v>5409.6</v>
       </c>
       <c r="H109" s="5" t="n">
         <v>400</v>
@@ -4950,11 +6194,11 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45932</v>
+        <v>45929</v>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -4964,12 +6208,12 @@
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Fence Wheel and weight</t>
+          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
@@ -4978,7 +6222,7 @@
         </is>
       </c>
       <c r="G110" s="4" t="n">
-        <v>65</v>
+        <v>512.16</v>
       </c>
       <c r="H110" s="5" t="n">
         <v>400</v>
@@ -4986,11 +6230,11 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45932</v>
+        <v>45929</v>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -5000,12 +6244,12 @@
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>CAP,DRIVE AUGER 4 1/4 2KEY HD 1 5/8 HEX</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
@@ -5014,7 +6258,7 @@
         </is>
       </c>
       <c r="G111" s="4" t="n">
-        <v>11.61</v>
+        <v>450</v>
       </c>
       <c r="H111" s="5" t="n">
         <v>400</v>
@@ -5022,35 +6266,35 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H112" s="5" t="n">
         <v>400</v>
@@ -5058,35 +6302,35 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
-        <v>50</v>
+        <v>620.8099999999999</v>
       </c>
       <c r="H113" s="5" t="n">
         <v>400</v>
@@ -5094,35 +6338,35 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45933</v>
+        <v>45930</v>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>NGSJ25-003</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Load &amp; Ship to Site</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="G114" s="4" t="n">
-        <v>350</v>
+        <v>13000</v>
       </c>
       <c r="H114" s="5" t="n">
         <v>400</v>
@@ -5130,35 +6374,31 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45938</v>
+        <v>45931</v>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
-        <is>
-          <t>174547431-0002</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>DUCT JACK/MATERIAL 24'-26'</t>
+          <t>Brian Vives	Flight- SJC to SNA 10/- SNA to SJC 10/8</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G115" s="4" t="n">
-        <v>755</v>
+        <v>675.97</v>
       </c>
       <c r="H115" s="5" t="n">
         <v>400</v>
@@ -5166,7 +6406,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45938</v>
+        <v>45932</v>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
@@ -5180,12 +6420,12 @@
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>DSL TRACK MINI SKIDSTEER</t>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -5194,7 +6434,7 @@
         </is>
       </c>
       <c r="G116" s="4" t="n">
-        <v>2965</v>
+        <v>58.1</v>
       </c>
       <c r="H116" s="5" t="n">
         <v>400</v>
@@ -5202,7 +6442,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45938</v>
+        <v>45932</v>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
@@ -5216,12 +6456,12 @@
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
+          <t>Fence Wheel and weight</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
@@ -5230,7 +6470,7 @@
         </is>
       </c>
       <c r="G117" s="4" t="n">
-        <v>4695</v>
+        <v>65</v>
       </c>
       <c r="H117" s="5" t="n">
         <v>400</v>
@@ -5238,7 +6478,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45938</v>
+        <v>45932</v>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
@@ -5252,12 +6492,12 @@
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; PickUp</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
@@ -5266,7 +6506,7 @@
         </is>
       </c>
       <c r="G118" s="4" t="n">
-        <v>440</v>
+        <v>11.61</v>
       </c>
       <c r="H118" s="5" t="n">
         <v>400</v>
@@ -5274,7 +6514,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45938</v>
+        <v>45932</v>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
@@ -5288,12 +6528,12 @@
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>Fees &amp; tax</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
@@ -5302,7 +6542,7 @@
         </is>
       </c>
       <c r="G119" s="4" t="n">
-        <v>1041.93</v>
+        <v>12.2</v>
       </c>
       <c r="H119" s="5" t="n">
         <v>400</v>
@@ -5310,31 +6550,35 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45941</v>
+        <v>45933</v>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5106 · Travel - Hotel (Direct)</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>738975</t>
-        </is>
-      </c>
-      <c r="E120" s="3" t="inlineStr"/>
+          <t>ER 100225</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>room cost for 1 day extension</t>
+        </is>
+      </c>
       <c r="F120" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
         </is>
       </c>
       <c r="G120" s="4" t="n">
-        <v>1600</v>
+        <v>147.29</v>
       </c>
       <c r="H120" s="5" t="n">
         <v>400</v>
@@ -5342,7 +6586,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45944</v>
+        <v>45933</v>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
@@ -5356,12 +6600,12 @@
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
@@ -5370,7 +6614,7 @@
         </is>
       </c>
       <c r="G121" s="4" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="H121" s="5" t="n">
         <v>400</v>
@@ -5378,7 +6622,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45944</v>
+        <v>45933</v>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
@@ -5392,12 +6636,12 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Shane Morris Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
@@ -5406,7 +6650,7 @@
         </is>
       </c>
       <c r="G122" s="4" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="H122" s="5" t="n">
         <v>400</v>
@@ -5414,7 +6658,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45944</v>
+        <v>45933</v>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
@@ -5428,12 +6672,12 @@
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>Michael Hyatt Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
@@ -5450,35 +6694,31 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>16774</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr"/>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Wyatt Staples Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>Brian Vives	Flight change fee</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G124" s="4" t="n">
-        <v>300</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H124" s="5" t="n">
         <v>400</v>
@@ -5486,35 +6726,35 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45947</v>
+        <v>45938</v>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>DUCT JACK/MATERIAL 24'-26'</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G125" s="4" t="n">
-        <v>350</v>
+        <v>755</v>
       </c>
       <c r="H125" s="5" t="n">
         <v>400</v>
@@ -5522,35 +6762,35 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45947</v>
+        <v>45938</v>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>DSL TRACK MINI SKIDSTEER</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G126" s="4" t="n">
-        <v>350</v>
+        <v>2965</v>
       </c>
       <c r="H126" s="5" t="n">
         <v>400</v>
@@ -5558,35 +6798,35 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45951</v>
+        <v>45938</v>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>1504 · Undeposited Funds</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Deposit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>35191</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>Deposit</t>
+          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G127" s="4" t="n">
-        <v>45072</v>
+        <v>4695</v>
       </c>
       <c r="H127" s="5" t="n">
         <v>400</v>
@@ -5594,35 +6834,35 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45954</v>
+        <v>45938</v>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>Delivery &amp; PickUp</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G128" s="4" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="H128" s="5" t="n">
         <v>400</v>
@@ -5630,35 +6870,35 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45954</v>
+        <v>45938</v>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>Fees &amp; tax</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G129" s="4" t="n">
-        <v>50</v>
+        <v>1041.93</v>
       </c>
       <c r="H129" s="5" t="n">
         <v>400</v>
@@ -5666,35 +6906,31 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
-        <is>
-          <t>16779</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr"/>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>Wyatt Staples 	Flight- BGR to SJC 10/12</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2313. · Chase Mileage Plus CW (5726)</t>
         </is>
       </c>
       <c r="G130" s="4" t="n">
-        <v>350</v>
+        <v>726.99</v>
       </c>
       <c r="H130" s="5" t="n">
         <v>400</v>
@@ -5702,37 +6938,1281 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>5006 · Drilling Expense</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>738975</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr"/>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G131" s="4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H131" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Mike Cogswell Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F132" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H132" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>Shane Morris Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G133" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H133" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G134" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H134" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>Wyatt Staples Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G135" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H135" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr"/>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>Brian V	Hotel- 10/8-10/24</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G136" s="4" t="n">
+        <v>1017.54</v>
+      </c>
+      <c r="H136" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr"/>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives	Hotel- 10/22-11/5</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G137" s="4" t="n">
+        <v>1017.54</v>
+      </c>
+      <c r="H137" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>35191</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr"/>
+      <c r="F138" s="3" t="inlineStr">
+        <is>
+          <t>1504 · Undeposited Funds</t>
+        </is>
+      </c>
+      <c r="G138" s="4" t="n">
+        <v>45072</v>
+      </c>
+      <c r="H138" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G139" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H139" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G140" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H140" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>1504 · Undeposited Funds</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>35191</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="inlineStr">
+        <is>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+        </is>
+      </c>
+      <c r="G141" s="4" t="n">
+        <v>45072</v>
+      </c>
+      <c r="H141" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>118595</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>Geoprobe Geoprobe 6011DT - Monthly Rental</t>
+        </is>
+      </c>
+      <c r="F142" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G142" s="4" t="n">
+        <v>8700</v>
+      </c>
+      <c r="H142" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="B143" s="3" t="inlineStr">
         <is>
           <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
+      <c r="C143" s="3" t="inlineStr">
         <is>
           <t>General Journal</t>
         </is>
       </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="D143" s="3" t="inlineStr">
         <is>
           <t>16779</t>
         </is>
       </c>
-      <c r="E131" s="3" t="inlineStr">
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G143" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H143" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>Gordon Doull Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F144" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G144" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H144" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F145" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G145" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H145" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
         <is>
           <t>Vace Varasteh Per diem for week of 10/27/2025 - 11/02/2025</t>
         </is>
       </c>
-      <c r="F131" s="3" t="inlineStr">
+      <c r="F146" s="3" t="inlineStr">
         <is>
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G131" s="4" t="n">
+      <c r="G146" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="H131" s="5" t="n">
+      <c r="H146" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>3009035</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>5"SCH10 PIPE</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G147" s="4" t="n">
+        <v>957.03</v>
+      </c>
+      <c r="H147" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="F148" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="H148" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>White Coverall</t>
+        </is>
+      </c>
+      <c r="F149" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G149" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="H149" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F150" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G150" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H150" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Water Spout I "CompletE"</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="H151" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>Tubing; LDPE 3/8x1/2 100ft Rol</t>
+        </is>
+      </c>
+      <c r="F152" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H152" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="H153" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t>101599</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Unit off Rent, Rental Credit to Invoice 118595</t>
+        </is>
+      </c>
+      <c r="F154" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>5800</v>
+      </c>
+      <c r="H154" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H155" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>Fence Wheel and weight</t>
+        </is>
+      </c>
+      <c r="F156" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H156" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>Service Charge and Tax</t>
+        </is>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H157" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F158" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H158" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F159" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G159" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H159" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F160" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G160" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H160" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>5107 · Travel - Other (Direct)</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>ER 102729</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>parking</t>
+        </is>
+      </c>
+      <c r="F161" s="3" t="inlineStr">
+        <is>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+        </is>
+      </c>
+      <c r="G161" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H161" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>118653</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>Geoprobe Geoprobe 6011DT - Return Trucking</t>
+        </is>
+      </c>
+      <c r="F162" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G162" s="4" t="n">
+        <v>1350</v>
+      </c>
+      <c r="H162" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G163" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H163" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F164" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G164" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H164" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F165" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G165" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H165" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>Vu Tran Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F166" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G166" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H166" s="5" t="n">
         <v>400</v>
       </c>
     </row>

--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -947,7 +947,7 @@
         <v>9827.1</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
@@ -983,7 +983,7 @@
         <v>9100</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
@@ -1019,7 +1019,7 @@
         <v>27560</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16">
@@ -1415,7 +1415,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
@@ -1487,7 +1487,7 @@
         <v>1950</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
@@ -1523,7 +1523,7 @@
         <v>450</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
@@ -1559,7 +1559,7 @@
         <v>12285</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
@@ -2293,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2385,36 +2385,36 @@
         <v>5000</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>NGSJ25-001</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr"/>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>RENTER'S NAME: BRIAN MORRIS</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>-SPLIT-</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>51408</v>
+        <v>209.92</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>200</v>
@@ -2422,11 +2422,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -2434,31 +2434,35 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>BM</t>
+        </is>
+      </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>RENTER'S NAME: BRIAN MORRIS</t>
+          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5111 Â· Parts &amp; material costs | Notes: Paint t...</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>209.92</v>
+        <v>37.03</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45758</v>
+        <v>45759</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -2473,7 +2477,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5111 Â· Parts &amp; material costs | Notes: Paint t...</t>
+          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5107 Â· Travel - Other | Notes: San jose hotel ...</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -2482,19 +2486,19 @@
         </is>
       </c>
       <c r="G5" s="4" t="n">
-        <v>37.03</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45759</v>
+        <v>45795</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -2504,12 +2508,12 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>User: Brian Morris | Jobs: NO JOB | GL Accounts: 5107 Â· Travel - Other | Notes: San jose hotel ...</t>
+          <t>User: Sepehr Ghahremani | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; materia...</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -2518,15 +2522,15 @@
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18</v>
+        <v>763.61</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
@@ -2554,19 +2558,19 @@
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>763.61</v>
+        <v>178.98</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45800</v>
+        <v>45852</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -2574,23 +2578,19 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>User: Sepehr Ghahremani | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; materia...</t>
+          <t>Gordon Doull &amp; Vu T	Flight- SNA to SJC- SJC to SNA 7/17</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Credit Card at Wells Fargo Ban</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
-        <v>178.98</v>
+        <v>770.95</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>300</v>
@@ -2598,11 +2598,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -2610,19 +2610,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull &amp; Vu T	Flight- SNA to SJC- SJC to SNA 7/17</t>
+          <t>Gordon Doull San Jose 7/17 - 7/17</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
-        <v>770.95</v>
+        <v>64.45</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>300</v>
@@ -2630,7 +2634,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
@@ -2642,19 +2646,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>VT</t>
+        </is>
+      </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull &amp; Vu T	Flight- SNA to SJC- SJC to SNA 7/17</t>
+          <t>User: Vu Tran | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5105 Â· Travel - Airfare | Card: ...</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>770.95</v>
+        <v>27.14</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>300</v>
@@ -2662,11 +2670,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45855</v>
+        <v>45857</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2681,16 +2689,16 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull San Jose 7/17 - 7/17</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | Not...</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>64.45</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>300</v>
@@ -2698,11 +2706,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5124 · License and permits (Direct)</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2712,12 +2720,12 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>User: Vu Tran | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5105 Â· Travel - Airfare | Card: ...</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5124 Â· License and permits ...</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -2726,7 +2734,7 @@
         </is>
       </c>
       <c r="G12" s="4" t="n">
-        <v>27.14</v>
+        <v>500</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>300</v>
@@ -2734,11 +2742,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45857</v>
+        <v>45870</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2746,23 +2754,15 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | Not...</t>
-        </is>
-      </c>
+      <c r="D13" s="3" t="inlineStr"/>
+      <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr">
         <is>
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>30</v>
+        <v>1631.92</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>300</v>
@@ -2770,11 +2770,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45860</v>
+        <v>45870</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>5124 · License and permits (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2782,14 +2782,10 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5124 Â· License and permits ...</t>
+          <t>User: Michael Hyatt | Jobs: DIAZ | GL Accounts: 5107 Â· Travel - Other | Card: Physical | Budget...</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -2798,7 +2794,7 @@
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>500</v>
+        <v>63.71</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>300</v>
@@ -2806,35 +2802,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>(E)429605</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>3 X 2 STD WELD CONC RED</t>
+          <t>Parking</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
-        <v>232.77</v>
+        <v>5</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>300</v>
@@ -2842,7 +2834,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -2851,26 +2843,18 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>(E)429605</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>3 STD WELD CAP</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>92.11</v>
+        <v>1821.12</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>300</v>
@@ -2878,35 +2862,27 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>(E)429605</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>5 STD WELD CAP</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>626.46</v>
+        <v>146.92</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>300</v>
@@ -2914,35 +2890,27 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>(E)429605</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>2  STD WELD CAP</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>305.11</v>
+        <v>35.08</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>300</v>
@@ -2950,35 +2918,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>(E)429605</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>User: Howard Hyatt | Jobs: SFS | GL Accounts: 5128 Â· Health &amp; Safety Equip | Card: Physical | B...</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>15</v>
+        <v>6.18</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>300</v>
@@ -2986,35 +2950,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5132 · Internet fee (Direct)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>(E)429605</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>tax</t>
-        </is>
-      </c>
+          <t>Divvy Aug</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>97.7</v>
+        <v>28</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>300</v>
@@ -3022,7 +2982,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -3036,12 +2996,12 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9163456961</t>
+          <t>(E)429605</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>RAD64005012 -RADNOR™ 2" X 4 1/4"</t>
+          <t>3 X 2 STD WELD CONC RED</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -3050,7 +3010,7 @@
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>55</v>
+        <v>232.77</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>300</v>
@@ -3058,7 +3018,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -3072,12 +3032,12 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9163456961</t>
+          <t>(E)429605</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Indura®/Leather Flame Resistant Sleeves</t>
+          <t>3 STD WELD CAP</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -3086,7 +3046,7 @@
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>47.48</v>
+        <v>92.11</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>300</v>
@@ -3094,7 +3054,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -3108,12 +3068,12 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9163456961</t>
+          <t>(E)429605</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>tac</t>
+          <t>5 STD WELD CAP</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
@@ -3122,7 +3082,7 @@
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>7.94</v>
+        <v>626.46</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>300</v>
@@ -3130,7 +3090,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -3144,12 +3104,12 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>9163809252</t>
+          <t>(E)429605</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>LINED010203 -1/8" X 14" E6010 Fleetweld®</t>
+          <t>2  STD WELD CAP</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -3158,7 +3118,7 @@
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>735</v>
+        <v>305.11</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>300</v>
@@ -3166,7 +3126,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -3180,12 +3140,12 @@
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>9163809252</t>
+          <t>(E)429605</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>HazmatCharge</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -3194,7 +3154,7 @@
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>300</v>
@@ -3202,7 +3162,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -3216,7 +3176,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>9163809252</t>
+          <t>(E)429605</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -3230,7 +3190,7 @@
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>60.45</v>
+        <v>97.7</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>300</v>
@@ -3238,7 +3198,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45880</v>
+        <v>45876</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -3252,12 +3212,12 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>9163809259</t>
+          <t xml:space="preserve"> 9163456961</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
+          <t>RAD64005012 -RADNOR™ 2" X 4 1/4"</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
@@ -3266,7 +3226,7 @@
         </is>
       </c>
       <c r="G27" s="4" t="n">
-        <v>12.27</v>
+        <v>55</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>300</v>
@@ -3274,7 +3234,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45880</v>
+        <v>45876</v>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -3288,12 +3248,12 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>9163809259</t>
+          <t xml:space="preserve"> 9163456961</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
+          <t>Indura®/Leather Flame Resistant Sleeves</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -3302,7 +3262,7 @@
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>140.5</v>
+        <v>47.48</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>300</v>
@@ -3310,7 +3270,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45880</v>
+        <v>45876</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -3324,12 +3284,12 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>9163809259</t>
+          <t xml:space="preserve"> 9163456961</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Taxes &amp; Fees</t>
+          <t>tac</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -3338,7 +3298,7 @@
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>64.2</v>
+        <v>7.94</v>
       </c>
       <c r="H29" s="5" t="n">
         <v>300</v>
@@ -3346,7 +3306,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45880</v>
+        <v>45876</v>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -3360,12 +3320,12 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>9163809259</t>
+          <t>9163809252</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
+          <t>LINED010203 -1/8" X 14" E6010 Fleetweld®</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -3374,7 +3334,7 @@
         </is>
       </c>
       <c r="G30" s="4" t="n">
-        <v>49.92</v>
+        <v>735</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>300</v>
@@ -3382,7 +3342,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45888</v>
+        <v>45876</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -3396,12 +3356,12 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>1020070</t>
+          <t>9163809252</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>5"SCH10 PIPE(5.563"X.134")</t>
+          <t>HazmatCharge</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -3410,7 +3370,7 @@
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>5488.64</v>
+        <v>45</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>300</v>
@@ -3418,7 +3378,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45888</v>
+        <v>45876</v>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
@@ -3432,12 +3392,12 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>1020070</t>
+          <t>9163809252</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>3"SCH 40 A500B/A53B NON-HYDRO</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -3446,7 +3406,7 @@
         </is>
       </c>
       <c r="G32" s="4" t="n">
-        <v>6174</v>
+        <v>60.45</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>300</v>
@@ -3454,7 +3414,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45888</v>
+        <v>45880</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
@@ -3468,12 +3428,12 @@
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>1020070</t>
+          <t>9163809259</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>2"SCH 40 A500B/A53B NON-HYDRO</t>
+          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -3482,7 +3442,7 @@
         </is>
       </c>
       <c r="G33" s="4" t="n">
-        <v>846.72</v>
+        <v>12.27</v>
       </c>
       <c r="H33" s="5" t="n">
         <v>300</v>
@@ -3490,35 +3450,35 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45889</v>
+        <v>45880</v>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>9163809259</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>San Jose 8/19 - 8/20</t>
+          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>138.81</v>
+        <v>140.5</v>
       </c>
       <c r="H34" s="5" t="n">
         <v>300</v>
@@ -3526,35 +3486,35 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45891</v>
+        <v>45880</v>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>16758</t>
+          <t>9163809259</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 8/25/2025 - 8/31/2025</t>
+          <t>Taxes &amp; Fees</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>100</v>
+        <v>64.2</v>
       </c>
       <c r="H35" s="5" t="n">
         <v>300</v>
@@ -3562,35 +3522,35 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>35545</t>
+          <t>1020070</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>NGSJ25-001</t>
+          <t>5"SCH10 PIPE(5.563"X.134")</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>1504 · Undeposited Funds</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
-        <v>51408</v>
+        <v>5488.64</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>300</v>
@@ -3598,7 +3558,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
@@ -3612,12 +3572,12 @@
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>(E)430000</t>
+          <t>1020070</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>5 STD WELD CAP</t>
+          <t>3"SCH 40 A500B/A53B NON-HYDRO</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -3626,7 +3586,7 @@
         </is>
       </c>
       <c r="G37" s="4" t="n">
-        <v>149.53</v>
+        <v>6174</v>
       </c>
       <c r="H37" s="5" t="n">
         <v>300</v>
@@ -3634,7 +3594,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
@@ -3648,12 +3608,12 @@
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>(E)430000</t>
+          <t>1020070</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>3 STD WELD CAP</t>
+          <t>2"SCH 40 A500B/A53B NON-HYDRO</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
@@ -3662,7 +3622,7 @@
         </is>
       </c>
       <c r="G38" s="4" t="n">
-        <v>16.98</v>
+        <v>846.72</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>300</v>
@@ -3670,35 +3630,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45894</v>
+        <v>45889</v>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5106 · Travel - Hotel (Direct)</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>(E)430000</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>1 1/4 STD WELD CAP</t>
-        </is>
-      </c>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
-        <v>67.06999999999999</v>
+        <v>156.98</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>300</v>
@@ -3706,35 +3662,35 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45894</v>
+        <v>45889</v>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>(E)430000</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>2 X 6 BLK S-40 NIPPLE</t>
+          <t>San Jose 8/19 - 8/20</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>147.53</v>
+        <v>138.81</v>
       </c>
       <c r="H40" s="5" t="n">
         <v>300</v>
@@ -3742,35 +3698,35 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>(E)430000</t>
+          <t>16758</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>3 X 6 BLK S-40 NIPPLE</t>
+          <t>Gordon Doull Per diem for week of 8/25/2025 - 8/31/2025</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>286.88</v>
+        <v>100</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>300</v>
@@ -3797,7 +3753,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>TAx</t>
+          <t>5 STD WELD CAP</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -3806,7 +3762,7 @@
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>51.77</v>
+        <v>149.53</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>300</v>
@@ -3818,7 +3774,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -3833,7 +3789,7 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>3 STD WELD CAP</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -3842,7 +3798,7 @@
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>15</v>
+        <v>16.98</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>300</v>
@@ -3850,11 +3806,11 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -3864,12 +3820,12 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>2931578</t>
+          <t>(E)430000</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>NY to San Jose</t>
+          <t>1 1/4 STD WELD CAP</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -3878,7 +3834,7 @@
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>2750</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>300</v>
@@ -3886,7 +3842,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45902</v>
+        <v>45894</v>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
@@ -3900,12 +3856,12 @@
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>1020430</t>
+          <t>(E)430000</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>5"SCH10 PIPE</t>
+          <t>2 X 6 BLK S-40 NIPPLE</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -3914,7 +3870,7 @@
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>3124.8</v>
+        <v>147.53</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>300</v>
@@ -3922,11 +3878,11 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -3936,12 +3892,12 @@
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>252549305-001</t>
+          <t>(E)430000</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>3 X 6 BLK S-40 NIPPLE</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -3950,7 +3906,7 @@
         </is>
       </c>
       <c r="G46" s="4" t="n">
-        <v>58.1</v>
+        <v>286.88</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>300</v>
@@ -3958,11 +3914,11 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -3972,12 +3928,12 @@
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>252549305-001</t>
+          <t>(E)430000</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick up charge</t>
+          <t>TAx</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
@@ -3986,7 +3942,7 @@
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>370</v>
+        <v>51.77</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>300</v>
@@ -3994,11 +3950,11 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -4008,12 +3964,12 @@
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>252549305-001</t>
+          <t>(E)430000</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
@@ -4022,7 +3978,7 @@
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>108.6</v>
+        <v>15</v>
       </c>
       <c r="H48" s="5" t="n">
         <v>300</v>
@@ -4030,11 +3986,11 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -4044,12 +4000,12 @@
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>252549305-001</t>
+          <t>2931578</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>50 FENCE COVER</t>
+          <t>NY to San Jose</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -4058,7 +4014,7 @@
         </is>
       </c>
       <c r="G49" s="4" t="n">
-        <v>150</v>
+        <v>2750</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>300</v>
@@ -4066,31 +4022,35 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr"/>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>1020430</t>
+        </is>
+      </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Eric Ma 	Hotel- 9/8-9/11</t>
+          <t>5"SCH10 PIPE</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
-        <v>278</v>
+        <v>3124.8</v>
       </c>
       <c r="H50" s="5" t="n">
         <v>300</v>
@@ -4098,11 +4058,11 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5106 · Travel - Hotel (Direct)</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -4110,19 +4070,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>Eric Ma	 Flight- ONT to SJC 9/8- SJC to ONT 9/11</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5106 Â· Travel - Hotel | Car...</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
-        <v>672.96</v>
+        <v>565.16</v>
       </c>
       <c r="H51" s="5" t="n">
         <v>300</v>
@@ -4130,35 +4094,35 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
+          <t>User: Iain Cowie | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5108 Â· Meals &amp; Entertainment ...</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>219.18</v>
+        <v>9.49</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>300</v>
@@ -4166,35 +4130,35 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
+          <t>User: Iain Cowie | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5108 Â· Meals &amp; Entertainment ...</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>142.08</v>
+        <v>19.81</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>300</v>
@@ -4202,35 +4166,35 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Single Sided Cotton Welder's Cap</t>
+          <t>User: Iain Cowie | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5108 Â· Meals &amp; Entertainment ...</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>15.36</v>
+        <v>27.08</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>300</v>
@@ -4238,35 +4202,35 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>Brown Top Grain Goatskin And Split Cowhide</t>
+          <t>User: Iain Cowie | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5108 Â· Meals &amp; Entertainment ...</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>109.92</v>
+        <v>27.95</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>300</v>
@@ -4274,11 +4238,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -4288,12 +4252,12 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>252549305-001</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Tax &amp; HazMat Charge</t>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -4302,7 +4266,7 @@
         </is>
       </c>
       <c r="G56" s="4" t="n">
-        <v>94.47</v>
+        <v>58.1</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>300</v>
@@ -4310,11 +4274,11 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -4324,12 +4288,12 @@
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>9164700138</t>
+          <t>252549305-001</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>7/8" Aluminum Oxide Type 27 Depressed</t>
+          <t>Delivery &amp; Pick up charge</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -4338,7 +4302,7 @@
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>61.35</v>
+        <v>370</v>
       </c>
       <c r="H57" s="5" t="n">
         <v>300</v>
@@ -4346,35 +4310,35 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>5107.1 · Travel - Car Rental</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>252549305-001</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Hoa Ma San Jose</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>2321 · Commerce Bank - Enterprise Acct</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
-        <v>236.86</v>
+        <v>108.6</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>300</v>
@@ -4382,11 +4346,11 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45912</v>
+        <v>45904</v>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -4396,17 +4360,21 @@
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>738955</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr"/>
+          <t>252549305-001</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>50 FENCE COVER</t>
+        </is>
+      </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>14115</v>
+        <v>150</v>
       </c>
       <c r="H59" s="5" t="n">
         <v>300</v>
@@ -4414,35 +4382,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>EE_091225</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>uber to and from airport</t>
+          <t>Eric Ma 	Hotel- 9/8-9/11</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>110.94</v>
+        <v>278</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>300</v>
@@ -4450,35 +4414,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>16767</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>Eric Ma Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Eric Ma	 Flight- ONT to SJC 9/8- SJC to ONT 9/11</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
-        <v>150</v>
+        <v>672.96</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>300</v>
@@ -4486,7 +4446,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
@@ -4495,26 +4455,26 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>User: Iain Cowie | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5108 Â· Meals &amp; Entertainment ...</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>150</v>
+        <v>13.46</v>
       </c>
       <c r="H62" s="5" t="n">
         <v>300</v>
@@ -4522,7 +4482,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
@@ -4531,26 +4491,22 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>16767</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>Iain Cowie Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>User: Iain Cowie | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5108 Â· Meals &amp; Entertainment ...</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
-        <v>150</v>
+        <v>8.16</v>
       </c>
       <c r="H63" s="5" t="n">
         <v>300</v>
@@ -4558,11 +4514,11 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45916</v>
+        <v>45905</v>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -4570,19 +4526,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>IC</t>
+        </is>
+      </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Michael H &amp; Vace V	 Hotel- 9/21-10/5</t>
+          <t>User: Iain Cowie | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material costs...</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>3463.04</v>
+        <v>170.71</v>
       </c>
       <c r="H64" s="5" t="n">
         <v>300</v>
@@ -4590,31 +4550,35 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr"/>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>9164700138</t>
+        </is>
+      </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>Brian V	 Hotel- 9/24-10/1</t>
+          <t>7/8" Ceramic Alumina Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>945.5599999999999</v>
+        <v>219.18</v>
       </c>
       <c r="H65" s="5" t="n">
         <v>300</v>
@@ -4622,47 +4586,47 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>9164700138</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t xml:space="preserve"> 7/8" Aluminum Oxide Type 1 Cut Off Wheel</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
+        <v>142.08</v>
+      </c>
+      <c r="H66" s="5" t="n">
         <v>300</v>
-      </c>
-      <c r="H66" s="5" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -4672,12 +4636,12 @@
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>174547431-0001</t>
+          <t>9164700138</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>DLPKSRCHG</t>
+          <t>Single Sided Cotton Welder's Cap</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
@@ -4686,19 +4650,19 @@
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>72</v>
+        <v>15.36</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -4708,12 +4672,12 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>174547431-0001</t>
+          <t>9164700138</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up Charge</t>
+          <t>Brown Top Grain Goatskin And Split Cowhide</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -4722,19 +4686,19 @@
         </is>
       </c>
       <c r="G68" s="4" t="n">
-        <v>400</v>
+        <v>109.92</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -4744,97 +4708,101 @@
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>174547431-0001</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr"/>
+          <t>9164700138</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Tax &amp; HazMat Charge</t>
+        </is>
+      </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
-        <v>25.5</v>
+        <v>94.47</v>
       </c>
       <c r="H69" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5107.1 · Travel - Car Rental</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>2962520</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>NY to San Jose</t>
+          <t>Hoa Ma San Jose</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
-        <v>1450</v>
+        <v>236.86</v>
       </c>
       <c r="H70" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>CAP,PULL 1.25“ GP RODS</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
-        <v>50</v>
+        <v>206.62</v>
       </c>
       <c r="H71" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45923</v>
+        <v>45912</v>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
@@ -4848,21 +4816,17 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
+          <t>738955</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
-        <v>97.52</v>
+        <v>14115</v>
       </c>
       <c r="H72" s="5" t="n">
         <v>400</v>
@@ -4870,530 +4834,522 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45923</v>
+        <v>45912</v>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>5116 · Rent - Storage (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007130</t>
+          <t>EE_091225</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>ROD,PROBE 1.25“ X 5‘</t>
+          <t>uber to and from airport</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
-        <v>990</v>
+        <v>110.94</v>
       </c>
       <c r="H73" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45924</v>
+        <v>45912</v>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>PLUG,AUGER 6 1/4 3ª THICK  WOOD</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material cos...</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
-        <v>640</v>
+        <v>763.66</v>
       </c>
       <c r="H74" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45924</v>
+        <v>45913</v>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>PLUG,AUGER 4 1/4 THICK WOOD-CAS</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
-        <v>332.5</v>
+        <v>49.51</v>
       </c>
       <c r="H75" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45924</v>
+        <v>45913</v>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5124 · License and permits (Direct)</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>BOLT,AUGER 2KEY 3 1/4 - 8 1/4 HD &amp; 4 1/4 - 7 1/4 XHD</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6124 Â· License &amp; permits | ...</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
-        <v>200</v>
+        <v>2.67</v>
       </c>
       <c r="H76" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45924</v>
+        <v>45913</v>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5124 · License and permits (Direct)</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>UPIN,1 5/8 HEX (5/8X2 3/8 STD)</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5124 Â· License and permits ...</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
-        <v>34.98</v>
+        <v>100.24</v>
       </c>
       <c r="H77" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45924</v>
+        <v>45915</v>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>TEETH,5T FORGED</t>
+          <t>Eric Ma Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1050</v>
+        <v>150</v>
       </c>
       <c r="H78" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45924</v>
+        <v>45915</v>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 6 1/4 2KEY BULLET HD</t>
+          <t>Gordon Doull Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
-        <v>937.51</v>
+        <v>150</v>
       </c>
       <c r="H79" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45924</v>
+        <v>45915</v>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>Iain Cowie Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1400</v>
+        <v>150</v>
       </c>
       <c r="H80" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>SI-11HPU007155</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
+          <t>Michael H &amp; Vace V	 Hotel- 9/21-10/5</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
-        <v>3960</v>
+        <v>3463.04</v>
       </c>
       <c r="H81" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
-        <v>266.75</v>
+        <v>154.97</v>
       </c>
       <c r="H82" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45924</v>
+        <v>45918</v>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>SI-11HPU007155</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>Brian V	 Hotel- 9/24-10/1</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
-        <v>480</v>
+        <v>945.5599999999999</v>
       </c>
       <c r="H83" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007155</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
-        <v>872.0700000000001</v>
+        <v>129.14</v>
       </c>
       <c r="H84" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45924</v>
+        <v>45920</v>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
-        <v>-1400</v>
+        <v>574.49</v>
       </c>
       <c r="H85" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
+          <t>Levi Winslow Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
-        <v>-3960</v>
+        <v>300</v>
       </c>
       <c r="H86" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>174547431-0001</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>DLPKSRCHG</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -5402,34 +5358,34 @@
         </is>
       </c>
       <c r="G87" s="4" t="n">
-        <v>-502.5</v>
+        <v>72</v>
       </c>
       <c r="H87" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>174547431-0001</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+          <t>Delivery &amp; Pick Up Charge</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
@@ -5438,70 +5394,66 @@
         </is>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="H88" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>HSA,8 1/4 2KEY HD 5FT</t>
-        </is>
-      </c>
+          <t>174547431-0001</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
-        <v>3960</v>
+        <v>25.5</v>
       </c>
       <c r="H89" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>CM-11HPU000099</t>
+          <t>2962520</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>NY to San Jose</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
@@ -5510,159 +5462,163 @@
         </is>
       </c>
       <c r="G90" s="4" t="n">
-        <v>502.5</v>
+        <v>1450</v>
       </c>
       <c r="H90" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>HEAD,HSA 4 1/4 2KEY BULLET HD(4 SM07 CUTTERS)</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
-        <v>500</v>
+        <v>44.3</v>
       </c>
       <c r="H91" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>HSA,6 1/4 2 KEY HD X 5FT</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1880</v>
+        <v>121.22</v>
       </c>
       <c r="H92" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007154</t>
+          <t>VV</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5128 Â· Health &amp; Safety Equ...</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
-        <v>223.13</v>
+        <v>70.62</v>
       </c>
       <c r="H93" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>5123 · Auto fuel (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>BV</t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr"/>
+          <t>SI-11HPU007130</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>CAP,PULL 1.25“ GP RODS</t>
+        </is>
+      </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>2323 · Shell Credit Card - WEX</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
-        <v>105.27</v>
+        <v>50</v>
       </c>
       <c r="H94" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -5672,12 +5628,12 @@
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>SI-11HPU007130</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>HOODED COVERALLS,XL,WHITE,BULK,PK25</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
@@ -5686,19 +5642,19 @@
         </is>
       </c>
       <c r="G95" s="4" t="n">
-        <v>65.2</v>
+        <v>97.52</v>
       </c>
       <c r="H95" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5116 · Rent - Storage (Direct)</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -5708,12 +5664,12 @@
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>SI-11HPU007130</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>HOODED COVERALLS,L,WHITE,BULK,PK25</t>
+          <t>ROD,PROBE 1.25“ X 5‘</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
@@ -5722,55 +5678,55 @@
         </is>
       </c>
       <c r="G96" s="4" t="n">
-        <v>63.73</v>
+        <v>990</v>
       </c>
       <c r="H96" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>SPILL KIT</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G97" s="4" t="n">
-        <v>398.32</v>
+        <v>145.71</v>
       </c>
       <c r="H97" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -5780,12 +5736,12 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>ABSORB PAD,OIL-BASED LIQUIDS,WHITE,PK20</t>
+          <t>PLUG,AUGER 6 1/4 3ª THICK  WOOD</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
@@ -5794,19 +5750,19 @@
         </is>
       </c>
       <c r="G98" s="4" t="n">
-        <v>71.36</v>
+        <v>640</v>
       </c>
       <c r="H98" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -5816,12 +5772,12 @@
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>9655231844</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>PLUG,AUGER 4 1/4 THICK WOOD-CAS</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
@@ -5830,19 +5786,19 @@
         </is>
       </c>
       <c r="G99" s="4" t="n">
-        <v>56.12</v>
+        <v>332.5</v>
       </c>
       <c r="H99" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -5852,12 +5808,12 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>9654451104</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>HALF MASK RESPIRATOR,ELASTOMER,BLACK</t>
+          <t>BOLT,AUGER 2KEY 3 1/4 - 8 1/4 HD &amp; 4 1/4 - 7 1/4 XHD</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
@@ -5866,19 +5822,19 @@
         </is>
       </c>
       <c r="G100" s="4" t="n">
-        <v>69.3</v>
+        <v>200</v>
       </c>
       <c r="H100" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -5888,12 +5844,12 @@
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>9654451104</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>COMBINATION CARTRIDGE/FILTER,THREADED,PR</t>
+          <t>UPIN,1 5/8 HEX (5/8X2 3/8 STD)</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
@@ -5902,19 +5858,19 @@
         </is>
       </c>
       <c r="G101" s="4" t="n">
-        <v>196.74</v>
+        <v>34.98</v>
       </c>
       <c r="H101" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -5924,12 +5880,12 @@
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>9654451104</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>TEETH,5T FORGED</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
@@ -5938,19 +5894,19 @@
         </is>
       </c>
       <c r="G102" s="4" t="n">
-        <v>24.94</v>
+        <v>1050</v>
       </c>
       <c r="H102" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45926</v>
+        <v>45924</v>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>6133.1 · Employee Expenses</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -5960,12 +5916,12 @@
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>09-26-25</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives - Santa Clara</t>
+          <t>HEAD,HSA 6 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
@@ -5974,75 +5930,79 @@
         </is>
       </c>
       <c r="G103" s="4" t="n">
-        <v>411.57</v>
+        <v>937.51</v>
       </c>
       <c r="H103" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45928</v>
+        <v>45924</v>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>5123 · Auto fuel (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>BV</t>
-        </is>
-      </c>
-      <c r="E104" s="3" t="inlineStr"/>
+          <t>SI-11HPU007155</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
+        </is>
+      </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>2323 · Shell Credit Card - WEX</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
-        <v>119.53</v>
+        <v>1400</v>
       </c>
       <c r="H104" s="5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>HSA,8 1/4 2KEY HD 5FT</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
-        <v>350</v>
+        <v>3960</v>
       </c>
       <c r="H105" s="5" t="n">
         <v>400</v>
@@ -6050,35 +6010,35 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
-        <v>350</v>
+        <v>266.75</v>
       </c>
       <c r="H106" s="5" t="n">
         <v>400</v>
@@ -6086,35 +6046,35 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="H107" s="5" t="n">
         <v>400</v>
@@ -6122,35 +6082,35 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>SI-11HPU007155</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
-        <v>350</v>
+        <v>872.0700000000001</v>
       </c>
       <c r="H108" s="5" t="n">
         <v>400</v>
@@ -6158,26 +6118,26 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>SAND,#3 50LB KLEEN LAPIS GOLD</t>
+          <t>HEAD,HSA 8 1/4 2KEY BULLET HD</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
@@ -6186,7 +6146,7 @@
         </is>
       </c>
       <c r="G109" s="4" t="n">
-        <v>5409.6</v>
+        <v>1400</v>
       </c>
       <c r="H109" s="5" t="n">
         <v>400</v>
@@ -6194,26 +6154,26 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
+          <t>HSA,8 1/4 2KEY HD 5FT</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
@@ -6222,7 +6182,7 @@
         </is>
       </c>
       <c r="G110" s="4" t="n">
-        <v>512.16</v>
+        <v>3960</v>
       </c>
       <c r="H110" s="5" t="n">
         <v>400</v>
@@ -6230,26 +6190,26 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>CM-11HPU000099</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>CAP,DRIVE AUGER 4 1/4 2KEY HD 1 5/8 HEX</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
@@ -6258,7 +6218,7 @@
         </is>
       </c>
       <c r="G111" s="4" t="n">
-        <v>450</v>
+        <v>502.5</v>
       </c>
       <c r="H111" s="5" t="n">
         <v>400</v>
@@ -6266,7 +6226,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
@@ -6280,12 +6240,12 @@
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>HEAD,HSA 4 1/4 2KEY BULLET HD(4 SM07 CUTTERS)</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
@@ -6294,7 +6254,7 @@
         </is>
       </c>
       <c r="G112" s="4" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H112" s="5" t="n">
         <v>400</v>
@@ -6302,7 +6262,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
@@ -6316,12 +6276,12 @@
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>SI-11HPU007182</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>HSA,6 1/4 2 KEY HD X 5FT</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
@@ -6330,7 +6290,7 @@
         </is>
       </c>
       <c r="G113" s="4" t="n">
-        <v>620.8099999999999</v>
+        <v>1880</v>
       </c>
       <c r="H113" s="5" t="n">
         <v>400</v>
@@ -6338,35 +6298,35 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45930</v>
+        <v>45924</v>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>NGSJ25-003</t>
+          <t>SI-11HPU007154</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Load &amp; Ship to Site</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G114" s="4" t="n">
-        <v>13000</v>
+        <v>223.13</v>
       </c>
       <c r="H114" s="5" t="n">
         <v>400</v>
@@ -6374,11 +6334,11 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45931</v>
+        <v>45924</v>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -6386,19 +6346,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D115" s="3" t="inlineStr"/>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives	Flight- SJC to SNA 10/- SNA to SJC 10/8</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6129 Â· Misc expenses | Car...</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G115" s="4" t="n">
-        <v>675.97</v>
+        <v>46.4</v>
       </c>
       <c r="H115" s="5" t="n">
         <v>400</v>
@@ -6406,35 +6370,35 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
-        <v>58.1</v>
+        <v>284.46</v>
       </c>
       <c r="H116" s="5" t="n">
         <v>400</v>
@@ -6442,35 +6406,35 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Fence Wheel and weight</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
-        <v>65</v>
+        <v>21.92</v>
       </c>
       <c r="H117" s="5" t="n">
         <v>400</v>
@@ -6478,35 +6442,35 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5122 · Motor vehicle exp (Direct)</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>User: Brian Vives | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6122 Â· Motor vehicle exp | N...</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G118" s="4" t="n">
-        <v>11.61</v>
+        <v>148.58</v>
       </c>
       <c r="H118" s="5" t="n">
         <v>400</v>
@@ -6514,35 +6478,31 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
-        </is>
-      </c>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>Service Charge and Tax</t>
-        </is>
-      </c>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr"/>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2323 · Shell Credit Card - WEX</t>
         </is>
       </c>
       <c r="G119" s="4" t="n">
-        <v>12.2</v>
+        <v>105.27</v>
       </c>
       <c r="H119" s="5" t="n">
         <v>400</v>
@@ -6550,35 +6510,35 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>ER 100225</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>room cost for 1 day extension</t>
+          <t>HOODED COVERALLS,XL,WHITE,BULK,PK25</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G120" s="4" t="n">
-        <v>147.29</v>
+        <v>65.2</v>
       </c>
       <c r="H120" s="5" t="n">
         <v>400</v>
@@ -6586,35 +6546,35 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>HOODED COVERALLS,L,WHITE,BULK,PK25</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G121" s="4" t="n">
-        <v>100</v>
+        <v>63.73</v>
       </c>
       <c r="H121" s="5" t="n">
         <v>400</v>
@@ -6622,35 +6582,35 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>SPILL KIT</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G122" s="4" t="n">
-        <v>50</v>
+        <v>398.32</v>
       </c>
       <c r="H122" s="5" t="n">
         <v>400</v>
@@ -6658,35 +6618,35 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>9655231844</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>ABSORB PAD,OIL-BASED LIQUIDS,WHITE,PK20</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G123" s="4" t="n">
-        <v>350</v>
+        <v>71.36</v>
       </c>
       <c r="H123" s="5" t="n">
         <v>400</v>
@@ -6694,31 +6654,35 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45937</v>
+        <v>45925</v>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr"/>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>9655231844</t>
+        </is>
+      </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives	Flight change fee</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G124" s="4" t="n">
-        <v>89.98999999999999</v>
+        <v>56.12</v>
       </c>
       <c r="H124" s="5" t="n">
         <v>400</v>
@@ -6726,35 +6690,35 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45938</v>
+        <v>45925</v>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>DUCT JACK/MATERIAL 24'-26'</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material cos...</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G125" s="4" t="n">
-        <v>755</v>
+        <v>2017.97</v>
       </c>
       <c r="H125" s="5" t="n">
         <v>400</v>
@@ -6762,35 +6726,35 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45938</v>
+        <v>45925</v>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>DSL TRACK MINI SKIDSTEER</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G126" s="4" t="n">
-        <v>2965</v>
+        <v>54.87</v>
       </c>
       <c r="H126" s="5" t="n">
         <v>400</v>
@@ -6798,7 +6762,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45938</v>
+        <v>45925</v>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
@@ -6807,26 +6771,26 @@
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5115 Â· Rent - Equipment | N...</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G127" s="4" t="n">
-        <v>4695</v>
+        <v>776.25</v>
       </c>
       <c r="H127" s="5" t="n">
         <v>400</v>
@@ -6834,35 +6798,35 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45938</v>
+        <v>45925</v>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; PickUp</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G128" s="4" t="n">
-        <v>440</v>
+        <v>41.59</v>
       </c>
       <c r="H128" s="5" t="n">
         <v>400</v>
@@ -6870,11 +6834,11 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45938</v>
+        <v>45925</v>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -6884,12 +6848,12 @@
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>9654451104</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>Fees &amp; tax</t>
+          <t>HALF MASK RESPIRATOR,ELASTOMER,BLACK</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -6898,7 +6862,7 @@
         </is>
       </c>
       <c r="G129" s="4" t="n">
-        <v>1041.93</v>
+        <v>69.3</v>
       </c>
       <c r="H129" s="5" t="n">
         <v>400</v>
@@ -6906,31 +6870,35 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45940</v>
+        <v>45925</v>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Credit Card Charge</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr"/>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>9654451104</t>
+        </is>
+      </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Wyatt Staples 	Flight- BGR to SJC 10/12</t>
+          <t>COMBINATION CARTRIDGE/FILTER,THREADED,PR</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>2313. · Chase Mileage Plus CW (5726)</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G130" s="4" t="n">
-        <v>726.99</v>
+        <v>196.74</v>
       </c>
       <c r="H130" s="5" t="n">
         <v>400</v>
@@ -6938,11 +6906,11 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45941</v>
+        <v>45925</v>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -6952,17 +6920,21 @@
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>738975</t>
-        </is>
-      </c>
-      <c r="E131" s="3" t="inlineStr"/>
+          <t>9654451104</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G131" s="4" t="n">
-        <v>1600</v>
+        <v>24.94</v>
       </c>
       <c r="H131" s="5" t="n">
         <v>400</v>
@@ -6970,35 +6942,35 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45944</v>
+        <v>45926</v>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G132" s="4" t="n">
-        <v>350</v>
+        <v>309.45</v>
       </c>
       <c r="H132" s="5" t="n">
         <v>400</v>
@@ -7006,35 +6978,35 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45944</v>
+        <v>45926</v>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>6133.1 · Employee Expenses</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>09-26-25</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>Shane Morris Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>Brian Vives - Santa Clara</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G133" s="4" t="n">
-        <v>350</v>
+        <v>411.57</v>
       </c>
       <c r="H133" s="5" t="n">
         <v>400</v>
@@ -7042,35 +7014,35 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45944</v>
+        <v>45927</v>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
-        <v>350</v>
+        <v>187.64</v>
       </c>
       <c r="H134" s="5" t="n">
         <v>400</v>
@@ -7078,35 +7050,35 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45944</v>
+        <v>45927</v>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>Wyatt Staples Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
-        <v>300</v>
+        <v>327.35</v>
       </c>
       <c r="H135" s="5" t="n">
         <v>400</v>
@@ -7114,11 +7086,11 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45945</v>
+        <v>45928</v>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -7126,19 +7098,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D136" s="3" t="inlineStr"/>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>VV</t>
+        </is>
+      </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Brian V	Hotel- 10/8-10/24</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6129 Â· Misc expenses | Not...</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
-        <v>1017.54</v>
+        <v>16.37</v>
       </c>
       <c r="H136" s="5" t="n">
         <v>400</v>
@@ -7146,11 +7122,11 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45945</v>
+        <v>45928</v>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -7158,19 +7134,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr"/>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives	Hotel- 10/22-11/5</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6129 Â· Misc expenses | Car...</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
-        <v>1017.54</v>
+        <v>59.06</v>
       </c>
       <c r="H137" s="5" t="n">
         <v>400</v>
@@ -7178,31 +7158,35 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45947</v>
+        <v>45928</v>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>35191</t>
-        </is>
-      </c>
-      <c r="E138" s="3" t="inlineStr"/>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
+        </is>
+      </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>1504 · Undeposited Funds</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
-        <v>45072</v>
+        <v>322.78</v>
       </c>
       <c r="H138" s="5" t="n">
         <v>400</v>
@@ -7210,35 +7194,35 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45947</v>
+        <v>45928</v>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Credit</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6129 Â· Misc expenses | Car...</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G139" s="4" t="n">
-        <v>350</v>
+        <v>59.06</v>
       </c>
       <c r="H139" s="5" t="n">
         <v>400</v>
@@ -7246,35 +7230,31 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45947</v>
+        <v>45928</v>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>16777</t>
-        </is>
-      </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>Vace Varasteh Per diem for week of 10/20/2025 - 10/26/2025</t>
-        </is>
-      </c>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2323 · Shell Credit Card - WEX</t>
         </is>
       </c>
       <c r="G140" s="4" t="n">
-        <v>350</v>
+        <v>119.53</v>
       </c>
       <c r="H140" s="5" t="n">
         <v>400</v>
@@ -7282,35 +7262,35 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45951</v>
+        <v>45929</v>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>1504 · Undeposited Funds</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Deposit</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>35191</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>Deposit</t>
+          <t>Michael Hyatt Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G141" s="4" t="n">
-        <v>45072</v>
+        <v>350</v>
       </c>
       <c r="H141" s="5" t="n">
         <v>400</v>
@@ -7318,11 +7298,11 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45952</v>
+        <v>45929</v>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -7332,12 +7312,12 @@
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>118595</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Geoprobe Geoprobe 6011DT - Monthly Rental</t>
+          <t>SAND,#3 50LB KLEEN LAPIS GOLD</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
@@ -7346,7 +7326,7 @@
         </is>
       </c>
       <c r="G142" s="4" t="n">
-        <v>8700</v>
+        <v>5409.6</v>
       </c>
       <c r="H142" s="5" t="n">
         <v>400</v>
@@ -7354,35 +7334,35 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45954</v>
+        <v>45929</v>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>CETCO PUREGOLD MED CHIPS 50LB LOV</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G143" s="4" t="n">
-        <v>350</v>
+        <v>512.16</v>
       </c>
       <c r="H143" s="5" t="n">
         <v>400</v>
@@ -7390,35 +7370,35 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45954</v>
+        <v>45929</v>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>CAP,DRIVE AUGER 4 1/4 2KEY HD 1 5/8 HEX</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G144" s="4" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="H144" s="5" t="n">
         <v>400</v>
@@ -7426,35 +7406,35 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45954</v>
+        <v>45929</v>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G145" s="4" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H145" s="5" t="n">
         <v>400</v>
@@ -7462,35 +7442,35 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45954</v>
+        <v>45929</v>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>SI-11HPU007182</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
-        <v>350</v>
+        <v>620.8099999999999</v>
       </c>
       <c r="H146" s="5" t="n">
         <v>400</v>
@@ -7498,35 +7478,35 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45958</v>
+        <v>45929</v>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>3009035</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>5"SCH10 PIPE</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6129 Â· Misc expenses | Car...</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G147" s="4" t="n">
-        <v>957.03</v>
+        <v>82.02</v>
       </c>
       <c r="H147" s="5" t="n">
         <v>400</v>
@@ -7534,7 +7514,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45958</v>
+        <v>45930</v>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
@@ -7543,26 +7523,26 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>199490642</t>
+          <t>NGSJ25-003</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Load &amp; Ship to Site</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="G148" s="4" t="n">
-        <v>16.63</v>
+        <v>13000</v>
       </c>
       <c r="H148" s="5" t="n">
         <v>400</v>
@@ -7570,35 +7550,31 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45958</v>
+        <v>45931</v>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>199490642</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr"/>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>White Coverall</t>
+          <t>Brian Vives	Flight- SJC to SNA 10/- SNA to SJC 10/8</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G149" s="4" t="n">
-        <v>54</v>
+        <v>675.97</v>
       </c>
       <c r="H149" s="5" t="n">
         <v>400</v>
@@ -7606,11 +7582,11 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45958</v>
+        <v>45932</v>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -7620,12 +7596,12 @@
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>199490642</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
@@ -7634,7 +7610,7 @@
         </is>
       </c>
       <c r="G150" s="4" t="n">
-        <v>5.2</v>
+        <v>58.1</v>
       </c>
       <c r="H150" s="5" t="n">
         <v>400</v>
@@ -7642,11 +7618,11 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45959</v>
+        <v>45932</v>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -7656,12 +7632,12 @@
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>US1-250069667</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>Water Spout I "CompletE"</t>
+          <t>Fence Wheel and weight</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -7670,7 +7646,7 @@
         </is>
       </c>
       <c r="G151" s="4" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H151" s="5" t="n">
         <v>400</v>
@@ -7678,11 +7654,11 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45959</v>
+        <v>45932</v>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -7692,12 +7668,12 @@
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>US1-250069667</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Tubing; LDPE 3/8x1/2 100ft Rol</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -7706,7 +7682,7 @@
         </is>
       </c>
       <c r="G152" s="4" t="n">
-        <v>30.1</v>
+        <v>12.2</v>
       </c>
       <c r="H152" s="5" t="n">
         <v>400</v>
@@ -7714,35 +7690,35 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45959</v>
+        <v>45933</v>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5106 · Travel - Hotel (Direct)</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>US1-250069667</t>
+          <t>ER 100225</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>room cost for 1 day extension</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
         </is>
       </c>
       <c r="G153" s="4" t="n">
-        <v>13.46</v>
+        <v>147.29</v>
       </c>
       <c r="H153" s="5" t="n">
         <v>400</v>
@@ -7750,35 +7726,35 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45959</v>
+        <v>45933</v>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>101599</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Unit off Rent, Rental Credit to Invoice 118595</t>
+          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G154" s="4" t="n">
-        <v>5800</v>
+        <v>100</v>
       </c>
       <c r="H154" s="5" t="n">
         <v>400</v>
@@ -7786,35 +7762,35 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45960</v>
+        <v>45933</v>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>252549305-003</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G155" s="4" t="n">
-        <v>58.1</v>
+        <v>50</v>
       </c>
       <c r="H155" s="5" t="n">
         <v>400</v>
@@ -7822,35 +7798,35 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45960</v>
+        <v>45933</v>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>252549305-003</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Fence Wheel and weight</t>
+          <t>Michael Hyatt Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="H156" s="5" t="n">
         <v>400</v>
@@ -7858,35 +7834,31 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45960</v>
+        <v>45937</v>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D157" s="3" t="inlineStr">
-        <is>
-          <t>252549305-003</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr"/>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>Brian Vives	Flight change fee</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G157" s="4" t="n">
-        <v>12.2</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H157" s="5" t="n">
         <v>400</v>
@@ -7894,35 +7866,35 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45961</v>
+        <v>45938</v>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>DUCT JACK/MATERIAL 24'-26'</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G158" s="4" t="n">
-        <v>200</v>
+        <v>755</v>
       </c>
       <c r="H158" s="5" t="n">
         <v>400</v>
@@ -7930,35 +7902,35 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45961</v>
+        <v>45938</v>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>DSL TRACK MINI SKIDSTEER</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G159" s="4" t="n">
-        <v>200</v>
+        <v>2965</v>
       </c>
       <c r="H159" s="5" t="n">
         <v>400</v>
@@ -7966,35 +7938,35 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45961</v>
+        <v>45938</v>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G160" s="4" t="n">
-        <v>200</v>
+        <v>4695</v>
       </c>
       <c r="H160" s="5" t="n">
         <v>400</v>
@@ -8002,35 +7974,35 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45967</v>
+        <v>45938</v>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>ER 102729</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>parking</t>
+          <t>Delivery &amp; PickUp</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G161" s="4" t="n">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="H161" s="5" t="n">
         <v>400</v>
@@ -8038,7 +8010,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45967</v>
+        <v>45938</v>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
@@ -8052,12 +8024,12 @@
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>118653</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Geoprobe Geoprobe 6011DT - Return Trucking</t>
+          <t>Fees &amp; tax</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
@@ -8066,7 +8038,7 @@
         </is>
       </c>
       <c r="G162" s="4" t="n">
-        <v>1350</v>
+        <v>1041.93</v>
       </c>
       <c r="H162" s="5" t="n">
         <v>400</v>
@@ -8074,35 +8046,31 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45968</v>
+        <v>45941</v>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>16784</t>
-        </is>
-      </c>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>Brian Vives Per diem for week of 11/10/2025 - 11/16/2025</t>
-        </is>
-      </c>
+          <t>738975</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr"/>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G163" s="4" t="n">
-        <v>350</v>
+        <v>1600</v>
       </c>
       <c r="H163" s="5" t="n">
         <v>400</v>
@@ -8110,7 +8078,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45968</v>
+        <v>45944</v>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
@@ -8124,12 +8092,12 @@
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>16784</t>
+          <t>16774</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>Michael Hyatt Per diem for week of 10/13/2025 - 10/19/2025</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
@@ -8146,7 +8114,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45968</v>
+        <v>45944</v>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
@@ -8160,12 +8128,12 @@
       </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>16784</t>
+          <t>16774</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>Vace Varasteh Per diem for week of 10/13/2025 - 10/19/2025</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
@@ -8182,38 +8150,1482 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr"/>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>Brian V	Hotel- 10/8-10/24</t>
+        </is>
+      </c>
+      <c r="F166" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G166" s="4" t="n">
+        <v>1017.54</v>
+      </c>
+      <c r="H166" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr"/>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives	Hotel- 10/22-11/5</t>
+        </is>
+      </c>
+      <c r="F167" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G167" s="4" t="n">
+        <v>1017.54</v>
+      </c>
+      <c r="H167" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="F168" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G168" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H168" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="F169" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G169" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H169" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>5105 · Travel - Airfare (Direct)</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="inlineStr"/>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-7900406564  (214) 792 - 4223 Southwest Airlines DALLAS TX</t>
+        </is>
+      </c>
+      <c r="F170" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G170" s="4" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="H170" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>9681837630</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>LOCKING CHAIN CLAMP,3-3/8" CAP.18" CHAI</t>
+        </is>
+      </c>
+      <c r="F171" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G171" s="4" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="H171" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>9681837630</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WEB SLING,FLAT EYE,6 FT L,12800 LB CAP</t>
+        </is>
+      </c>
+      <c r="F172" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G172" s="4" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="H172" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>9681837630</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F173" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G173" s="4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="H173" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>9682105474</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>LOCKING CHAIN CLAMP,3-3/8" CAP.18" CH</t>
+        </is>
+      </c>
+      <c r="F174" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G174" s="4" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="H174" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>9682105474</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>WEB SLING,FLAT EYE,6 FT L,12800 LB CAP.</t>
+        </is>
+      </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G175" s="4" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="H175" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>9682105474</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="F176" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G176" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="H176" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>118595</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>Geoprobe Geoprobe 6011DT - Monthly Rental</t>
+        </is>
+      </c>
+      <c r="F177" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G177" s="4" t="n">
+        <v>8700</v>
+      </c>
+      <c r="H177" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr"/>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-154848      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F178" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G178" s="4" t="n">
+        <v>1017.54</v>
+      </c>
+      <c r="H178" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F179" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G179" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H179" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>Gordon Doull Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F180" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G180" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H180" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F181" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G181" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H181" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F182" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G182" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H182" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>9687199266</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>HOODED COVERALLS,L,WHT,TYVEK(R) 400,PK6</t>
+        </is>
+      </c>
+      <c r="F183" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G183" s="4" t="n">
+        <v>253.75</v>
+      </c>
+      <c r="H183" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>5105 · Travel - Airfare (Direct)</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr"/>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-7900407170  (214) 792 - 4223 Southwest Airlines DALLAS TX</t>
+        </is>
+      </c>
+      <c r="F184" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G184" s="4" t="n">
+        <v>640.96</v>
+      </c>
+      <c r="H184" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>3009035</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>5"SCH10 PIPE</t>
+        </is>
+      </c>
+      <c r="F185" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G185" s="4" t="n">
+        <v>957.03</v>
+      </c>
+      <c r="H185" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="F186" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G186" s="4" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="H186" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>White Coverall</t>
+        </is>
+      </c>
+      <c r="F187" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G187" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="H187" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F188" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G188" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H188" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="inlineStr">
+        <is>
+          <t>Water Spout I "CompletE"</t>
+        </is>
+      </c>
+      <c r="F189" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G189" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="H189" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>Tubing; LDPE 3/8x1/2 100ft Rol</t>
+        </is>
+      </c>
+      <c r="F190" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G190" s="4" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H190" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G191" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="H191" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>101599</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="inlineStr">
+        <is>
+          <t>Unit off Rent, Rental Credit to Invoice 118595</t>
+        </is>
+      </c>
+      <c r="F192" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G192" s="4" t="n">
+        <v>5800</v>
+      </c>
+      <c r="H192" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+        </is>
+      </c>
+      <c r="F193" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G193" s="4" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H193" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>Fence Wheel and weight</t>
+        </is>
+      </c>
+      <c r="F194" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G194" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H194" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="inlineStr">
+        <is>
+          <t>Service Charge and Tax</t>
+        </is>
+      </c>
+      <c r="F195" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G195" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H195" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="inlineStr"/>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-160750      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F196" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G196" s="4" t="n">
+        <v>813.12</v>
+      </c>
+      <c r="H196" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F197" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G197" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H197" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F198" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G198" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H198" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G199" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H199" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr"/>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-154848      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F200" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G200" s="4" t="n">
+        <v>1173.94</v>
+      </c>
+      <c r="H200" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr"/>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-154845      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G201" s="4" t="n">
+        <v>1173.94</v>
+      </c>
+      <c r="H201" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>5107 · Travel - Other (Direct)</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>ER 102729</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>parking</t>
+        </is>
+      </c>
+      <c r="F202" s="3" t="inlineStr">
+        <is>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+        </is>
+      </c>
+      <c r="G202" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H202" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>118653</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>Geoprobe Geoprobe 6011DT - Return Trucking</t>
+        </is>
+      </c>
+      <c r="F203" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G203" s="4" t="n">
+        <v>1350</v>
+      </c>
+      <c r="H203" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>45968</v>
       </c>
-      <c r="B166" s="3" t="inlineStr">
+      <c r="B204" s="3" t="inlineStr">
         <is>
           <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
-      <c r="C166" s="3" t="inlineStr">
+      <c r="C204" s="3" t="inlineStr">
         <is>
           <t>General Journal</t>
         </is>
       </c>
-      <c r="D166" s="3" t="inlineStr">
+      <c r="D204" s="3" t="inlineStr">
         <is>
           <t>16784</t>
         </is>
       </c>
-      <c r="E166" s="3" t="inlineStr">
-        <is>
-          <t>Vu Tran Per diem for week of 11/10/2025 - 11/16/2025</t>
-        </is>
-      </c>
-      <c r="F166" s="3" t="inlineStr">
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F204" s="3" t="inlineStr">
         <is>
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G166" s="4" t="n">
-        <v>300</v>
-      </c>
-      <c r="H166" s="5" t="n">
-        <v>400</v>
+      <c r="G204" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H204" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F205" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G205" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H205" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B206" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F206" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G206" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H206" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>16787</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>per diem overage</t>
+        </is>
+      </c>
+      <c r="F207" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G207" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="H207" s="5" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2282,6 +2282,582 @@
         <v>400</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>4001 · Service Income</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>Fuel surcharge (3%)</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>452.3</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Forklift delivery/pickup</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Forklift and hopper</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>1365</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>4002 · Equipment Rental Income</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Third party roll off bin rental (10 yd) - estimate only</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-009</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Drilling &amp; Plenum Construction Oversite and Subsurface Installation Labor</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>31203.61</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Mobilization/Demobilization</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Auger Drilling Services Crew</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>13200</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>Support Truck</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>1650</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Prevailing wage surcharge</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>742.5</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Backfill sand</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>2550.59</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>50 lb Portland Cement</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>3/8" Bentonite Chips</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Decon augers</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>4 1/4" wood plugs</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>4006 · Drilling Income</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>5 6/8" wood plugs</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>4202 · Consulting Fees</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>NGSJ25-010</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Per Diem</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>726</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2293,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7582,35 +8158,35 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
-        <v>58.1</v>
+        <v>25</v>
       </c>
       <c r="H150" s="5" t="n">
         <v>400</v>
@@ -7618,35 +8194,35 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>Fence Wheel and weight</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
-        <v>65</v>
+        <v>47.41</v>
       </c>
       <c r="H151" s="5" t="n">
         <v>400</v>
@@ -7654,35 +8230,35 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>252549305-002</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5128 Â· Health &amp; Safety Equ...</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G152" s="4" t="n">
-        <v>12.2</v>
+        <v>14.87</v>
       </c>
       <c r="H152" s="5" t="n">
         <v>400</v>
@@ -7690,35 +8266,35 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>ER 100225</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>room cost for 1 day extension</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5105 Â· Travel - Airfare | C...</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G153" s="4" t="n">
-        <v>147.29</v>
+        <v>548.36</v>
       </c>
       <c r="H153" s="5" t="n">
         <v>400</v>
@@ -7726,35 +8302,35 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G154" s="4" t="n">
-        <v>100</v>
+        <v>58.1</v>
       </c>
       <c r="H154" s="5" t="n">
         <v>400</v>
@@ -7762,35 +8338,35 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Fence Wheel and weight</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G155" s="4" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H155" s="5" t="n">
         <v>400</v>
@@ -7798,35 +8374,35 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>252549305-002</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
-        <v>350</v>
+        <v>12.2</v>
       </c>
       <c r="H156" s="5" t="n">
         <v>400</v>
@@ -7834,11 +8410,11 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45937</v>
+        <v>45932</v>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -7846,19 +8422,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D157" s="3" t="inlineStr"/>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives	Flight change fee</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G157" s="4" t="n">
-        <v>89.98999999999999</v>
+        <v>131.56</v>
       </c>
       <c r="H157" s="5" t="n">
         <v>400</v>
@@ -7866,35 +8446,35 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45938</v>
+        <v>45933</v>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>DUCT JACK/MATERIAL 24'-26'</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5105 Â· Travel - Airfare | C...</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G158" s="4" t="n">
-        <v>755</v>
+        <v>17.6</v>
       </c>
       <c r="H158" s="5" t="n">
         <v>400</v>
@@ -7902,35 +8482,35 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45938</v>
+        <v>45933</v>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5106 · Travel - Hotel (Direct)</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>ER 100225</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>DSL TRACK MINI SKIDSTEER</t>
+          <t>room cost for 1 day extension</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
         </is>
       </c>
       <c r="G159" s="4" t="n">
-        <v>2965</v>
+        <v>147.29</v>
       </c>
       <c r="H159" s="5" t="n">
         <v>400</v>
@@ -7938,35 +8518,35 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45938</v>
+        <v>45933</v>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
+          <t>Brian Vives Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G160" s="4" t="n">
-        <v>4695</v>
+        <v>100</v>
       </c>
       <c r="H160" s="5" t="n">
         <v>400</v>
@@ -7974,35 +8554,35 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45938</v>
+        <v>45933</v>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; PickUp</t>
+          <t>Gordon Doull Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G161" s="4" t="n">
-        <v>440</v>
+        <v>50</v>
       </c>
       <c r="H161" s="5" t="n">
         <v>400</v>
@@ -8010,35 +8590,35 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45938</v>
+        <v>45933</v>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>174547431-0002</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Fees &amp; tax</t>
+          <t>Michael Hyatt Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G162" s="4" t="n">
-        <v>1041.93</v>
+        <v>350</v>
       </c>
       <c r="H162" s="5" t="n">
         <v>400</v>
@@ -8046,31 +8626,35 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45941</v>
+        <v>45933</v>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>738975</t>
-        </is>
-      </c>
-      <c r="E163" s="3" t="inlineStr"/>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G163" s="4" t="n">
-        <v>1600</v>
+        <v>40.88</v>
       </c>
       <c r="H163" s="5" t="n">
         <v>400</v>
@@ -8078,35 +8662,35 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45944</v>
+        <v>45934</v>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>User: Brian Vives | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | Card...</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G164" s="4" t="n">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="H164" s="5" t="n">
         <v>400</v>
@@ -8114,35 +8698,31 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45944</v>
+        <v>45934</v>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D165" s="3" t="inlineStr">
-        <is>
-          <t>16774</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr"/>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G165" s="4" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="H165" s="5" t="n">
         <v>400</v>
@@ -8150,11 +8730,11 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45945</v>
+        <v>45934</v>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -8162,19 +8742,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D166" s="3" t="inlineStr"/>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Brian V	Hotel- 10/8-10/24</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G166" s="4" t="n">
-        <v>1017.54</v>
+        <v>20</v>
       </c>
       <c r="H166" s="5" t="n">
         <v>400</v>
@@ -8182,11 +8766,11 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45945</v>
+        <v>45934</v>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>6107 · Travel - Other (Indirect)</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -8194,19 +8778,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D167" s="3" t="inlineStr"/>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>BV</t>
+        </is>
+      </c>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives	Hotel- 10/22-11/5</t>
+          <t>User: Brian Vives | Jobs: NGSJ - Northgate San Jose | GL Accounts: 6107 Â· Travel - Other | Card...</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G167" s="4" t="n">
-        <v>1017.54</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H167" s="5" t="n">
         <v>400</v>
@@ -8214,35 +8802,31 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45947</v>
+        <v>45937</v>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D168" s="3" t="inlineStr">
-        <is>
-          <t>16777</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>Brian Vives	Flight change fee</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G168" s="4" t="n">
-        <v>350</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H168" s="5" t="n">
         <v>400</v>
@@ -8250,35 +8834,31 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45947</v>
+        <v>45937</v>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D169" s="3" t="inlineStr">
-        <is>
-          <t>16777</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr"/>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Notes: ...</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G169" s="4" t="n">
-        <v>350</v>
+        <v>23.72</v>
       </c>
       <c r="H169" s="5" t="n">
         <v>400</v>
@@ -8286,11 +8866,11 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45950</v>
+        <v>45937</v>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -8298,19 +8878,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D170" s="3" t="inlineStr"/>
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>EMILY G SANDOVAL-81047-7900406564  (214) 792 - 4223 Southwest Airlines DALLAS TX</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G170" s="4" t="n">
-        <v>298.3</v>
+        <v>42.06</v>
       </c>
       <c r="H170" s="5" t="n">
         <v>400</v>
@@ -8318,11 +8902,11 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45950</v>
+        <v>45938</v>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -8332,12 +8916,12 @@
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>9681837630</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>LOCKING CHAIN CLAMP,3-3/8" CAP.18" CHAI</t>
+          <t>DUCT JACK/MATERIAL 24'-26'</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
@@ -8346,7 +8930,7 @@
         </is>
       </c>
       <c r="G171" s="4" t="n">
-        <v>41.19</v>
+        <v>755</v>
       </c>
       <c r="H171" s="5" t="n">
         <v>400</v>
@@ -8354,11 +8938,11 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45950</v>
+        <v>45938</v>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -8368,12 +8952,12 @@
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>9681837630</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEB SLING,FLAT EYE,6 FT L,12800 LB CAP</t>
+          <t>DSL TRACK MINI SKIDSTEER</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
@@ -8382,7 +8966,7 @@
         </is>
       </c>
       <c r="G172" s="4" t="n">
-        <v>32.28</v>
+        <v>2965</v>
       </c>
       <c r="H172" s="5" t="n">
         <v>400</v>
@@ -8390,11 +8974,11 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45950</v>
+        <v>45938</v>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -8404,12 +8988,12 @@
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t>9681837630</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
@@ -8418,7 +9002,7 @@
         </is>
       </c>
       <c r="G173" s="4" t="n">
-        <v>6.88</v>
+        <v>4695</v>
       </c>
       <c r="H173" s="5" t="n">
         <v>400</v>
@@ -8426,11 +9010,11 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45951</v>
+        <v>45938</v>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -8440,12 +9024,12 @@
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>9682105474</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>LOCKING CHAIN CLAMP,3-3/8" CAP.18" CH</t>
+          <t>Delivery &amp; PickUp</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
@@ -8454,7 +9038,7 @@
         </is>
       </c>
       <c r="G174" s="4" t="n">
-        <v>41.19</v>
+        <v>440</v>
       </c>
       <c r="H174" s="5" t="n">
         <v>400</v>
@@ -8462,11 +9046,11 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45951</v>
+        <v>45938</v>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -8476,12 +9060,12 @@
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>9682105474</t>
+          <t>174547431-0002</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>WEB SLING,FLAT EYE,6 FT L,12800 LB CAP.</t>
+          <t>Fees &amp; tax</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
@@ -8490,7 +9074,7 @@
         </is>
       </c>
       <c r="G175" s="4" t="n">
-        <v>32.28</v>
+        <v>1041.93</v>
       </c>
       <c r="H175" s="5" t="n">
         <v>400</v>
@@ -8498,35 +9082,35 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45951</v>
+        <v>45939</v>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>9682105474</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>User: Brian Vives | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | Card...</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G176" s="4" t="n">
-        <v>5.88</v>
+        <v>7.01</v>
       </c>
       <c r="H176" s="5" t="n">
         <v>400</v>
@@ -8534,35 +9118,31 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45952</v>
+        <v>45939</v>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D177" s="3" t="inlineStr">
-        <is>
-          <t>118595</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr"/>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>Geoprobe Geoprobe 6011DT - Monthly Rental</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G177" s="4" t="n">
-        <v>8700</v>
+        <v>25.01</v>
       </c>
       <c r="H177" s="5" t="n">
         <v>400</v>
@@ -8570,11 +9150,11 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45954</v>
+        <v>45939</v>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -8582,19 +9162,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D178" s="3" t="inlineStr"/>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>EMILY G SANDOVAL-81047-154848      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G178" s="4" t="n">
-        <v>1017.54</v>
+        <v>32.35</v>
       </c>
       <c r="H178" s="5" t="n">
         <v>400</v>
@@ -8602,35 +9186,31 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5107 · Travel - Other (Direct)</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>16779</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr"/>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | Car...</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G179" s="4" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="H179" s="5" t="n">
         <v>400</v>
@@ -8638,35 +9218,35 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>VV</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Gordon Doull Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5128 Â· Health &amp; Safety Equ...</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G180" s="4" t="n">
-        <v>50</v>
+        <v>8.58</v>
       </c>
       <c r="H180" s="5" t="n">
         <v>400</v>
@@ -8674,35 +9254,35 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 10/27/2025 - 11/02/2025</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel,5128 Â· H...</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G181" s="4" t="n">
-        <v>350</v>
+        <v>59.58</v>
       </c>
       <c r="H181" s="5" t="n">
         <v>400</v>
@@ -8710,35 +9290,31 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45954</v>
+        <v>45941</v>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
-          <t>16779</t>
-        </is>
-      </c>
-      <c r="E182" s="3" t="inlineStr">
-        <is>
-          <t>Vace Varasteh Per diem for week of 10/27/2025 - 11/02/2025</t>
-        </is>
-      </c>
+          <t>738975</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr"/>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G182" s="4" t="n">
-        <v>350</v>
+        <v>1600</v>
       </c>
       <c r="H182" s="5" t="n">
         <v>400</v>
@@ -8746,7 +9322,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45954</v>
+        <v>45941</v>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
@@ -8755,26 +9331,26 @@
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t>9687199266</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>HOODED COVERALLS,L,WHT,TYVEK(R) 400,PK6</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G183" s="4" t="n">
-        <v>253.75</v>
+        <v>34.43</v>
       </c>
       <c r="H183" s="5" t="n">
         <v>400</v>
@@ -8782,11 +9358,11 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45957</v>
+        <v>45942</v>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>5105 · Travel - Airfare (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -8794,19 +9370,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr"/>
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>VV</t>
+        </is>
+      </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>EMILY G SANDOVAL-81047-7900407170  (214) 792 - 4223 Southwest Airlines DALLAS TX</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G184" s="4" t="n">
-        <v>640.96</v>
+        <v>13.8</v>
       </c>
       <c r="H184" s="5" t="n">
         <v>400</v>
@@ -8814,35 +9394,35 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45958</v>
+        <v>45942</v>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>3009035</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t>5"SCH10 PIPE</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G185" s="4" t="n">
-        <v>957.03</v>
+        <v>25</v>
       </c>
       <c r="H185" s="5" t="n">
         <v>400</v>
@@ -8850,35 +9430,35 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45958</v>
+        <v>45944</v>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>199490642</t>
+          <t>16774</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Michael Hyatt Per diem for week of 10/13/2025 - 10/19/2025</t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G186" s="4" t="n">
-        <v>16.63</v>
+        <v>350</v>
       </c>
       <c r="H186" s="5" t="n">
         <v>400</v>
@@ -8886,35 +9466,35 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45958</v>
+        <v>45944</v>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>199490642</t>
+          <t>16774</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>White Coverall</t>
+          <t>Vace Varasteh Per diem for week of 10/13/2025 - 10/19/2025</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G187" s="4" t="n">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="H187" s="5" t="n">
         <v>400</v>
@@ -8922,35 +9502,35 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45958</v>
+        <v>45944</v>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>199490642</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G188" s="4" t="n">
-        <v>5.2</v>
+        <v>151.39</v>
       </c>
       <c r="H188" s="5" t="n">
         <v>400</v>
@@ -8958,35 +9538,35 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45959</v>
+        <v>45944</v>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>US1-250069667</t>
+          <t>VV</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>Water Spout I "CompletE"</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Notes: ...</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G189" s="4" t="n">
-        <v>95</v>
+        <v>23.38</v>
       </c>
       <c r="H189" s="5" t="n">
         <v>400</v>
@@ -8994,35 +9574,35 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45959</v>
+        <v>45944</v>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>US1-250069667</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Tubing; LDPE 3/8x1/2 100ft Rol</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G190" s="4" t="n">
-        <v>30.1</v>
+        <v>160.96</v>
       </c>
       <c r="H190" s="5" t="n">
         <v>400</v>
@@ -9030,35 +9610,31 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45959</v>
+        <v>45945</v>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5106 · Travel - Hotel (Direct)</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D191" s="3" t="inlineStr">
-        <is>
-          <t>US1-250069667</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="inlineStr"/>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Brian V	Hotel- 10/8-10/24</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G191" s="4" t="n">
-        <v>13.46</v>
+        <v>1017.54</v>
       </c>
       <c r="H191" s="5" t="n">
         <v>400</v>
@@ -9066,35 +9642,31 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45959</v>
+        <v>45945</v>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5106 · Travel - Hotel (Direct)</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="D192" s="3" t="inlineStr">
-        <is>
-          <t>101599</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="inlineStr"/>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Unit off Rent, Rental Credit to Invoice 118595</t>
+          <t>Brian Vives	Hotel- 10/22-11/5</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>2310 · American Express Delta</t>
         </is>
       </c>
       <c r="G192" s="4" t="n">
-        <v>5800</v>
+        <v>1017.54</v>
       </c>
       <c r="H192" s="5" t="n">
         <v>400</v>
@@ -9102,35 +9674,35 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45960</v>
+        <v>45945</v>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>252549305-003</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G193" s="4" t="n">
-        <v>58.1</v>
+        <v>23.49</v>
       </c>
       <c r="H193" s="5" t="n">
         <v>400</v>
@@ -9138,35 +9710,35 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45960</v>
+        <v>45945</v>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>252549305-003</t>
+          <t>VV</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Fence Wheel and weight</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Notes: ...</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G194" s="4" t="n">
-        <v>65</v>
+        <v>23.99</v>
       </c>
       <c r="H194" s="5" t="n">
         <v>400</v>
@@ -9174,35 +9746,31 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45960</v>
+        <v>45946</v>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D195" s="3" t="inlineStr">
-        <is>
-          <t>252549305-003</t>
-        </is>
-      </c>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr"/>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Notes: ...</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G195" s="4" t="n">
-        <v>12.2</v>
+        <v>39.27</v>
       </c>
       <c r="H195" s="5" t="n">
         <v>400</v>
@@ -9210,11 +9778,11 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45961</v>
+        <v>45946</v>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5123 · Auto fuel (Direct)</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -9222,19 +9790,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D196" s="3" t="inlineStr"/>
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>EMILY G SANDOVAL-81047-160750      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G196" s="4" t="n">
-        <v>813.12</v>
+        <v>24.37</v>
       </c>
       <c r="H196" s="5" t="n">
         <v>400</v>
@@ -9242,35 +9814,35 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45961</v>
+        <v>45947</v>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>User: Gordon Doull | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5105 Â· Travel - Airfare | C...</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G197" s="4" t="n">
-        <v>200</v>
+        <v>441.96</v>
       </c>
       <c r="H197" s="5" t="n">
         <v>400</v>
@@ -9278,7 +9850,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45961</v>
+        <v>45947</v>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
@@ -9292,12 +9864,12 @@
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>16777</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>Michael Hyatt Per diem for week of 10/20/2025 - 10/26/2025</t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
@@ -9306,7 +9878,7 @@
         </is>
       </c>
       <c r="G198" s="4" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H198" s="5" t="n">
         <v>400</v>
@@ -9314,7 +9886,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45961</v>
+        <v>45947</v>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
@@ -9328,12 +9900,12 @@
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>16777</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>Vace Varasteh Per diem for week of 10/20/2025 - 10/26/2025</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
@@ -9342,7 +9914,7 @@
         </is>
       </c>
       <c r="G199" s="4" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H199" s="5" t="n">
         <v>400</v>
@@ -9350,11 +9922,11 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45966</v>
+        <v>45947</v>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -9362,19 +9934,23 @@
           <t>Credit Card Charge</t>
         </is>
       </c>
-      <c r="D200" s="3" t="inlineStr"/>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>EMILY G SANDOVAL-81047-154848      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel,5128 Â· H...</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>2310 · American Express Delta</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G200" s="4" t="n">
-        <v>1173.94</v>
+        <v>29.79</v>
       </c>
       <c r="H200" s="5" t="n">
         <v>400</v>
@@ -9382,11 +9958,11 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45966</v>
+        <v>45950</v>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>5106 · Travel - Hotel (Direct)</t>
+          <t>5105 · Travel - Airfare (Direct)</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -9397,7 +9973,7 @@
       <c r="D201" s="3" t="inlineStr"/>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>EMILY G SANDOVAL-81047-154845      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+          <t>EMILY G SANDOVAL-81047-7900406564  (214) 792 - 4223 Southwest Airlines DALLAS TX</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
@@ -9406,7 +9982,7 @@
         </is>
       </c>
       <c r="G201" s="4" t="n">
-        <v>1173.94</v>
+        <v>298.3</v>
       </c>
       <c r="H201" s="5" t="n">
         <v>400</v>
@@ -9414,35 +9990,35 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45967</v>
+        <v>45950</v>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>5107 · Travel - Other (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>ER 102729</t>
+          <t>9681837630</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>parking</t>
+          <t>LOCKING CHAIN CLAMP,3-3/8" CAP.18" CHAI</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G202" s="4" t="n">
-        <v>30</v>
+        <v>41.19</v>
       </c>
       <c r="H202" s="5" t="n">
         <v>400</v>
@@ -9450,11 +10026,11 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45967</v>
+        <v>45950</v>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -9464,12 +10040,12 @@
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>118653</t>
+          <t>9681837630</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>Geoprobe Geoprobe 6011DT - Return Trucking</t>
+          <t xml:space="preserve"> WEB SLING,FLAT EYE,6 FT L,12800 LB CAP</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
@@ -9478,7 +10054,7 @@
         </is>
       </c>
       <c r="G203" s="4" t="n">
-        <v>1350</v>
+        <v>32.28</v>
       </c>
       <c r="H203" s="5" t="n">
         <v>400</v>
@@ -9486,35 +10062,35 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45968</v>
+        <v>45950</v>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>16784</t>
+          <t>9681837630</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Brian Vives Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G204" s="4" t="n">
-        <v>350</v>
+        <v>6.88</v>
       </c>
       <c r="H204" s="5" t="n">
         <v>400</v>
@@ -9522,35 +10098,35 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45968</v>
+        <v>45950</v>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>16784</t>
+          <t>VV</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G205" s="4" t="n">
-        <v>350</v>
+        <v>11.07</v>
       </c>
       <c r="H205" s="5" t="n">
         <v>400</v>
@@ -9558,35 +10134,35 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45968</v>
+        <v>45950</v>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Credit Card Charge</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>16784</t>
+          <t>VV</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
       <c r="G206" s="4" t="n">
-        <v>350</v>
+        <v>10.36</v>
       </c>
       <c r="H206" s="5" t="n">
         <v>400</v>
@@ -9594,37 +10170,3033 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>9682105474</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>LOCKING CHAIN CLAMP,3-3/8" CAP.18" CH</t>
+        </is>
+      </c>
+      <c r="F207" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G207" s="4" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="H207" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>9682105474</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>WEB SLING,FLAT EYE,6 FT L,12800 LB CAP.</t>
+        </is>
+      </c>
+      <c r="F208" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G208" s="4" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="H208" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>9682105474</t>
+        </is>
+      </c>
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="F209" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G209" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="H209" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>118595</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>Geoprobe Geoprobe 6011DT - Monthly Rental</t>
+        </is>
+      </c>
+      <c r="F210" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G210" s="4" t="n">
+        <v>8700</v>
+      </c>
+      <c r="H210" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
+      <c r="F211" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G211" s="4" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="H211" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
+      <c r="F212" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G212" s="4" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="H212" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel,5128 Â· H...</t>
+        </is>
+      </c>
+      <c r="F213" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G213" s="4" t="n">
+        <v>49.22</v>
+      </c>
+      <c r="H213" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
+      <c r="F214" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G214" s="4" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="H214" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E215" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel,5128 Â· H...</t>
+        </is>
+      </c>
+      <c r="F215" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G215" s="4" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="H215" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D216" s="3" t="inlineStr"/>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-154848      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F216" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G216" s="4" t="n">
+        <v>1017.54</v>
+      </c>
+      <c r="H216" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D217" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E217" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F217" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G217" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H217" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B218" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D218" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>Gordon Doull Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F218" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G218" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H218" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D219" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E219" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F219" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G219" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H219" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 10/27/2025 - 11/02/2025</t>
+        </is>
+      </c>
+      <c r="F220" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G220" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H220" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>9687199266</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>HOODED COVERALLS,L,WHT,TYVEK(R) 400,PK6</t>
+        </is>
+      </c>
+      <c r="F221" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G221" s="4" t="n">
+        <v>253.75</v>
+      </c>
+      <c r="H221" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
+      <c r="F222" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G222" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H222" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D223" s="3" t="inlineStr">
+        <is>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E223" s="3" t="inlineStr">
+        <is>
+          <t>User: Brian Vives | Card: Physical | Budget: Operations | Merchant Address: SAN JOSE | Cleared T...</t>
+        </is>
+      </c>
+      <c r="F223" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G223" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H223" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D224" s="3" t="inlineStr">
+        <is>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>User: Brian Vives | Card: Physical | Budget: Operations | Merchant Address: SAN JOSE | Cleared T...</t>
+        </is>
+      </c>
+      <c r="F224" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G224" s="4" t="n">
+        <v>159.34</v>
+      </c>
+      <c r="H224" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>5105 · Travel - Airfare (Direct)</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D225" s="3" t="inlineStr"/>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-7900407170  (214) 792 - 4223 Southwest Airlines DALLAS TX</t>
+        </is>
+      </c>
+      <c r="F225" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G225" s="4" t="n">
+        <v>640.96</v>
+      </c>
+      <c r="H225" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>3009035</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>5"SCH10 PIPE</t>
+        </is>
+      </c>
+      <c r="F226" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G226" s="4" t="n">
+        <v>957.03</v>
+      </c>
+      <c r="H226" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
+        </is>
+      </c>
+      <c r="F227" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G227" s="4" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="H227" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
+        </is>
+      </c>
+      <c r="F228" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G228" s="4" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="H228" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="F229" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G229" s="4" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="H229" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
+      <c r="F230" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G230" s="4" t="n">
+        <v>44.58</v>
+      </c>
+      <c r="H230" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>White Coverall</t>
+        </is>
+      </c>
+      <c r="F231" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G231" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="H231" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D232" s="3" t="inlineStr">
+        <is>
+          <t>199490642</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F232" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G232" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H232" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr">
+        <is>
+          <t>Water Spout I "CompletE"</t>
+        </is>
+      </c>
+      <c r="F233" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G233" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="H233" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>Tubing; LDPE 3/8x1/2 100ft Rol</t>
+        </is>
+      </c>
+      <c r="F234" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G234" s="4" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H234" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D235" s="3" t="inlineStr">
+        <is>
+          <t>US1-250069667</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F235" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G235" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="H235" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="D236" s="3" t="inlineStr">
+        <is>
+          <t>101599</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>Unit off Rent, Rental Credit to Invoice 118595</t>
+        </is>
+      </c>
+      <c r="F236" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G236" s="4" t="n">
+        <v>5800</v>
+      </c>
+      <c r="H236" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D237" s="3" t="inlineStr">
+        <is>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>User: Brian Vives | Card: Physical | Budget: Operations | Merchant Address: SAN JOSE | Cleared T...</t>
+        </is>
+      </c>
+      <c r="F237" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G237" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H237" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B238" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C238" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D238" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
+        </is>
+      </c>
+      <c r="F238" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G238" s="4" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="H238" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D239" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E239" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5111 Â· Parts &amp; material co...</t>
+        </is>
+      </c>
+      <c r="F239" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G239" s="4" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="H239" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B240" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C240" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D240" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="inlineStr">
+        <is>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+        </is>
+      </c>
+      <c r="F240" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G240" s="4" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H240" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B241" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D241" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E241" s="3" t="inlineStr">
+        <is>
+          <t>Fence Wheel and weight</t>
+        </is>
+      </c>
+      <c r="F241" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G241" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H241" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B242" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D242" s="3" t="inlineStr">
+        <is>
+          <t>252549305-003</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>Service Charge and Tax</t>
+        </is>
+      </c>
+      <c r="F242" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G242" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H242" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D243" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
+      <c r="F243" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G243" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H243" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="inlineStr">
+        <is>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>User: Brian Vives | Card: Physical | Budget: Operations | Merchant Address: SAN JOSE | Cleared T...</t>
+        </is>
+      </c>
+      <c r="F244" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G244" s="4" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="H244" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>5105 · Travel - Airfare (Direct)</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D245" s="3" t="inlineStr">
+        <is>
+          <t>VV</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="inlineStr">
+        <is>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | No...</t>
+        </is>
+      </c>
+      <c r="F245" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G245" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="H245" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>5105 · Travel - Airfare (Direct)</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D246" s="3" t="inlineStr">
+        <is>
+          <t>VV</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr">
+        <is>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | No...</t>
+        </is>
+      </c>
+      <c r="F246" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G246" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H246" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D247" s="3" t="inlineStr"/>
+      <c r="E247" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-160750      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F247" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G247" s="4" t="n">
+        <v>813.12</v>
+      </c>
+      <c r="H247" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B248" s="3" t="inlineStr">
+        <is>
+          <t>5107 · Travel - Other (Direct)</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D248" s="3" t="inlineStr">
+        <is>
+          <t>VV</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="inlineStr">
+        <is>
+          <t>User: Vace Varasteh | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5107 Â· Travel - Other | No...</t>
+        </is>
+      </c>
+      <c r="F248" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G248" s="4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="H248" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D249" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F249" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G249" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H249" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D250" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F250" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G250" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H250" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 11/03/2025 - 11/09/2025</t>
+        </is>
+      </c>
+      <c r="F251" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G251" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H251" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>User: Michael Hyatt | Jobs: NGSJ - Northgate San Jose | GL Accounts: 5123 Â· Auto fuel | Card: P...</t>
+        </is>
+      </c>
+      <c r="F252" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card at Wells Fargo Ban</t>
+        </is>
+      </c>
+      <c r="G252" s="4" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="H252" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D253" s="3" t="inlineStr"/>
+      <c r="E253" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-154848      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F253" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G253" s="4" t="n">
+        <v>1173.94</v>
+      </c>
+      <c r="H253" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D254" s="3" t="inlineStr"/>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-154845      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F254" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G254" s="4" t="n">
+        <v>1173.94</v>
+      </c>
+      <c r="H254" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B255" s="3" t="inlineStr">
+        <is>
+          <t>5107 · Travel - Other (Direct)</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D255" s="3" t="inlineStr">
+        <is>
+          <t>ER 102729</t>
+        </is>
+      </c>
+      <c r="E255" s="3" t="inlineStr">
+        <is>
+          <t>parking</t>
+        </is>
+      </c>
+      <c r="F255" s="3" t="inlineStr">
+        <is>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+        </is>
+      </c>
+      <c r="G255" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H255" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D256" s="3" t="inlineStr">
+        <is>
+          <t>118653</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>Geoprobe Geoprobe 6011DT - Return Trucking</t>
+        </is>
+      </c>
+      <c r="F256" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G256" s="4" t="n">
+        <v>1350</v>
+      </c>
+      <c r="H256" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D257" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E257" s="3" t="inlineStr">
+        <is>
+          <t>Brian Vives Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F257" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G257" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H257" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B258" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D258" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F258" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G258" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H258" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B259" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D259" s="3" t="inlineStr">
+        <is>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="E259" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 11/10/2025 - 11/16/2025</t>
+        </is>
+      </c>
+      <c r="F259" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G259" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H259" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B260" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D260" s="3" t="inlineStr">
+        <is>
+          <t>176236915-0001</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr">
+        <is>
+          <t>1100-1500LB TRACK SKIDSTEER</t>
+        </is>
+      </c>
+      <c r="F260" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G260" s="4" t="n">
+        <v>3615</v>
+      </c>
+      <c r="H260" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D261" s="3" t="inlineStr">
+        <is>
+          <t>176236915-0001</t>
+        </is>
+      </c>
+      <c r="E261" s="3" t="inlineStr">
+        <is>
+          <t>Delivery &amp; Pick Up</t>
+        </is>
+      </c>
+      <c r="F261" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G261" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H261" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>176236915-0001</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr">
+        <is>
+          <t>Taxes &amp; Fees</t>
+        </is>
+      </c>
+      <c r="F262" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G262" s="4" t="n">
+        <v>518.78</v>
+      </c>
+      <c r="H262" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>45975</v>
       </c>
-      <c r="B207" s="3" t="inlineStr">
+      <c r="B263" s="3" t="inlineStr">
         <is>
           <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
-      <c r="C207" s="3" t="inlineStr">
+      <c r="C263" s="3" t="inlineStr">
         <is>
           <t>General Journal</t>
         </is>
       </c>
-      <c r="D207" s="3" t="inlineStr">
+      <c r="D263" s="3" t="inlineStr">
         <is>
           <t>16787</t>
         </is>
       </c>
-      <c r="E207" s="3" t="inlineStr">
+      <c r="E263" s="3" t="inlineStr">
         <is>
           <t>per diem overage</t>
         </is>
       </c>
-      <c r="F207" s="3" t="inlineStr">
+      <c r="F263" s="3" t="inlineStr">
         <is>
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G207" s="4" t="n">
+      <c r="G263" s="4" t="n">
         <v>550</v>
       </c>
-      <c r="H207" s="5" t="n">
+      <c r="H263" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D264" s="3" t="inlineStr"/>
+      <c r="E264" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-164560      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F264" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G264" s="4" t="n">
+        <v>890</v>
+      </c>
+      <c r="H264" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="inlineStr">
+        <is>
+          <t>Credit Card Charge</t>
+        </is>
+      </c>
+      <c r="D265" s="3" t="inlineStr"/>
+      <c r="E265" s="3" t="inlineStr">
+        <is>
+          <t>EMILY G SANDOVAL-81047-154848      916-355-1616 LARKSPUR LANDING MILPITAS LARKSPUR LAN MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="F265" s="3" t="inlineStr">
+        <is>
+          <t>2310 · American Express Delta</t>
+        </is>
+      </c>
+      <c r="G265" s="4" t="n">
+        <v>990</v>
+      </c>
+      <c r="H265" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D266" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0003</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr">
+        <is>
+          <t>DUCT JACK/MATERIAL 24'-26'</t>
+        </is>
+      </c>
+      <c r="F266" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G266" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D267" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0003</t>
+        </is>
+      </c>
+      <c r="E267" s="3" t="inlineStr">
+        <is>
+          <t>DSL TRACK MINI SKIDSTEER</t>
+        </is>
+      </c>
+      <c r="F267" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G267" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="H267" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D268" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0003</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="inlineStr">
+        <is>
+          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
+        </is>
+      </c>
+      <c r="F268" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G268" s="4" t="n">
+        <v>4695</v>
+      </c>
+      <c r="H268" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D269" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0003</t>
+        </is>
+      </c>
+      <c r="E269" s="3" t="inlineStr">
+        <is>
+          <t>Delivery &amp; PickUp</t>
+        </is>
+      </c>
+      <c r="F269" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G269" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B270" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C270" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D270" s="3" t="inlineStr">
+        <is>
+          <t>174547431-0003</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="inlineStr">
+        <is>
+          <t>Fees &amp; tax</t>
+        </is>
+      </c>
+      <c r="F270" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G270" s="4" t="n">
+        <v>967.61</v>
+      </c>
+      <c r="H270" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C271" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D271" s="3" t="inlineStr">
+        <is>
+          <t>252549305-004</t>
+        </is>
+      </c>
+      <c r="E271" s="3" t="inlineStr">
+        <is>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+        </is>
+      </c>
+      <c r="F271" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G271" s="4" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H271" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B272" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C272" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D272" s="3" t="inlineStr">
+        <is>
+          <t>252549305-004</t>
+        </is>
+      </c>
+      <c r="E272" s="3" t="inlineStr">
+        <is>
+          <t>Fence Wheel and weight</t>
+        </is>
+      </c>
+      <c r="F272" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G272" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H272" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D273" s="3" t="inlineStr">
+        <is>
+          <t>252549305-004</t>
+        </is>
+      </c>
+      <c r="E273" s="3" t="inlineStr">
+        <is>
+          <t>Service Charge and Tax</t>
+        </is>
+      </c>
+      <c r="F273" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G273" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H273" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>1823 · Equipment - TCU Basic</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D274" s="3" t="inlineStr">
+        <is>
+          <t>56078933</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="inlineStr">
+        <is>
+          <t>High-Pressure Brass Pipe Fitting, 1/8 NPTF</t>
+        </is>
+      </c>
+      <c r="F274" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G274" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="H274" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t>1823 · Equipment - TCU Basic</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D275" s="3" t="inlineStr">
+        <is>
+          <t>56078933</t>
+        </is>
+      </c>
+      <c r="E275" s="3" t="inlineStr">
+        <is>
+          <t>Sales Tax</t>
+        </is>
+      </c>
+      <c r="F275" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G275" s="4" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H275" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>1823 · Equipment - TCU Basic</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D276" s="3" t="inlineStr">
+        <is>
+          <t>56078933</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="F276" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G276" s="4" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="H276" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="inlineStr">
+        <is>
+          <t>9167217156</t>
+        </is>
+      </c>
+      <c r="E277" s="3" t="inlineStr">
+        <is>
+          <t>Stainless Rod</t>
+        </is>
+      </c>
+      <c r="F277" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G277" s="4" t="n">
+        <v>183.68</v>
+      </c>
+      <c r="H277" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B278" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C278" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D278" s="3" t="inlineStr">
+        <is>
+          <t>16796</t>
+        </is>
+      </c>
+      <c r="E278" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 12/8/2025 - 12/14/2025</t>
+        </is>
+      </c>
+      <c r="F278" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G278" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H278" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C279" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D279" s="3" t="inlineStr">
+        <is>
+          <t>16796</t>
+        </is>
+      </c>
+      <c r="E279" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 12/8/2025 - 12/14/2025</t>
+        </is>
+      </c>
+      <c r="F279" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G279" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H279" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B280" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C280" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D280" s="3" t="inlineStr">
+        <is>
+          <t>S3267280.001</t>
+        </is>
+      </c>
+      <c r="E280" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 x 1 STD Black REeducing Tee</t>
+        </is>
+      </c>
+      <c r="F280" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G280" s="4" t="n">
+        <v>146.87</v>
+      </c>
+      <c r="H280" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B281" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C281" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D281" s="3" t="inlineStr">
+        <is>
+          <t>S3267280.001</t>
+        </is>
+      </c>
+      <c r="E281" s="3" t="inlineStr">
+        <is>
+          <t>3x2 STD BLK DOUBLE TAP BUSHING</t>
+        </is>
+      </c>
+      <c r="F281" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G281" s="4" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="H281" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B282" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C282" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D282" s="3" t="inlineStr">
+        <is>
+          <t>S3267280.001</t>
+        </is>
+      </c>
+      <c r="E282" s="3" t="inlineStr">
+        <is>
+          <t>2 X CL STD BLACK NIPPLE TBE</t>
+        </is>
+      </c>
+      <c r="F282" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G282" s="4" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="H282" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B283" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C283" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D283" s="3" t="inlineStr">
+        <is>
+          <t>S3267280.001</t>
+        </is>
+      </c>
+      <c r="E283" s="3" t="inlineStr">
+        <is>
+          <t>2 STD BLK MALLEABLE THD TEE</t>
+        </is>
+      </c>
+      <c r="F283" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G283" s="4" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="H283" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B284" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C284" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D284" s="3" t="inlineStr">
+        <is>
+          <t>S3267280.001</t>
+        </is>
+      </c>
+      <c r="E284" s="3" t="inlineStr">
+        <is>
+          <t>1 X 2 STD BLK NIPPLE TBE</t>
+        </is>
+      </c>
+      <c r="F284" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G284" s="4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="H284" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B285" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C285" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D285" s="3" t="inlineStr">
+        <is>
+          <t>S3267280.001</t>
+        </is>
+      </c>
+      <c r="E285" s="3" t="inlineStr">
+        <is>
+          <t>tAX</t>
+        </is>
+      </c>
+      <c r="F285" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G285" s="4" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="H285" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B286" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C286" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D286" s="3" t="inlineStr">
+        <is>
+          <t>177786256-0001</t>
+        </is>
+      </c>
+      <c r="E286" s="3" t="inlineStr">
+        <is>
+          <t>DLPKSRCHG EA</t>
+        </is>
+      </c>
+      <c r="F286" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G286" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H286" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B287" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C287" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D287" s="3" t="inlineStr">
+        <is>
+          <t>177786256-0001</t>
+        </is>
+      </c>
+      <c r="E287" s="3" t="inlineStr">
+        <is>
+          <t>Delivery &amp; Pick Up Charge</t>
+        </is>
+      </c>
+      <c r="F287" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G287" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="H287" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B288" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C288" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D288" s="3" t="inlineStr">
+        <is>
+          <t>177786256-0001</t>
+        </is>
+      </c>
+      <c r="E288" s="3" t="inlineStr">
+        <is>
+          <t>Tax &amp; Fees</t>
+        </is>
+      </c>
+      <c r="F288" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G288" s="4" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="H288" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B289" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C289" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D289" s="3" t="inlineStr">
+        <is>
+          <t>3046304</t>
+        </is>
+      </c>
+      <c r="E289" s="3" t="inlineStr">
+        <is>
+          <t>Orange to NGSJ</t>
+        </is>
+      </c>
+      <c r="F289" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G289" s="4" t="n">
+        <v>1450</v>
+      </c>
+      <c r="H289" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B290" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C290" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D290" s="3" t="inlineStr">
+        <is>
+          <t>16798</t>
+        </is>
+      </c>
+      <c r="E290" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 12/15/2025 - 12/21/2025</t>
+        </is>
+      </c>
+      <c r="F290" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G290" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H290" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B291" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C291" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D291" s="3" t="inlineStr">
+        <is>
+          <t>16798</t>
+        </is>
+      </c>
+      <c r="E291" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 12/15/2025 - 12/21/2025</t>
+        </is>
+      </c>
+      <c r="F291" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G291" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H291" s="5" t="n">
         <v>500</v>
       </c>
     </row>

--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -3076,7 +3076,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46053</v>
+        <v>46056</v>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
@@ -3106,13 +3106,15 @@
       <c r="G73" s="4" t="n">
         <v>11407.5</v>
       </c>
-      <c r="H73" s="5" t="n">
-        <v>500</v>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46053</v>
+        <v>46056</v>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
@@ -3142,13 +3144,15 @@
       <c r="G74" s="4" t="n">
         <v>54602.32</v>
       </c>
-      <c r="H74" s="5" t="n">
-        <v>500</v>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46053</v>
+        <v>46056</v>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
@@ -3178,13 +3182,15 @@
       <c r="G75" s="4" t="n">
         <v>50518</v>
       </c>
-      <c r="H75" s="5" t="n">
-        <v>500</v>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46053</v>
+        <v>46056</v>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
@@ -3214,13 +3220,15 @@
       <c r="G76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H76" s="5" t="n">
-        <v>500</v>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46053</v>
+        <v>46056</v>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
@@ -3250,13 +3258,15 @@
       <c r="G77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H77" s="5" t="n">
-        <v>500</v>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46053</v>
+        <v>46056</v>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
@@ -3286,8 +3296,10 @@
       <c r="G78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H78" s="5" t="n">
-        <v>500</v>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H380"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -16334,74 +16346,78 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>46038</v>
+        <v>46036</v>
       </c>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C367" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D367" s="3" t="inlineStr">
         <is>
-          <t>16810</t>
+          <t>9771267425</t>
         </is>
       </c>
       <c r="E367" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere Per diem for week of 1/19/2026 - 1/25/2026</t>
+          <t>THREE BEAM MAGNETIC TORPEDO LASER LEVEL</t>
         </is>
       </c>
       <c r="F367" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G367" s="4" t="n">
-        <v>350</v>
-      </c>
-      <c r="H367" s="5" t="n">
-        <v>500</v>
+        <v>189.76</v>
+      </c>
+      <c r="H367" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>46038</v>
+        <v>46036</v>
       </c>
       <c r="B368" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D368" s="3" t="inlineStr">
         <is>
-          <t>16810</t>
+          <t>9771267425</t>
         </is>
       </c>
       <c r="E368" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 1/12/2026 - 1/25/2026</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G368" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="H368" s="5" t="n">
-        <v>500</v>
+        <v>14.71</v>
+      </c>
+      <c r="H368" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="369">
@@ -16410,31 +16426,31 @@
       </c>
       <c r="B369" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D369" s="3" t="inlineStr">
         <is>
-          <t>178433028-0001</t>
+          <t>16810</t>
         </is>
       </c>
       <c r="E369" s="3" t="inlineStr">
         <is>
-          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
+          <t>Luke Giguere Per diem for week of 1/19/2026 - 1/25/2026</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G369" s="4" t="n">
-        <v>4470</v>
+        <v>350</v>
       </c>
       <c r="H369" s="5" t="n">
         <v>500</v>
@@ -16446,31 +16462,31 @@
       </c>
       <c r="B370" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D370" s="3" t="inlineStr">
         <is>
-          <t>178433028-0001</t>
+          <t>16810</t>
         </is>
       </c>
       <c r="E370" s="3" t="inlineStr">
         <is>
-          <t>Fees and Charges</t>
+          <t>Michael Hyatt Per diem for week of 1/12/2026 - 1/25/2026</t>
         </is>
       </c>
       <c r="F370" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="G370" s="4" t="n">
-        <v>190.69</v>
+        <v>700</v>
       </c>
       <c r="H370" s="5" t="n">
         <v>500</v>
@@ -16497,7 +16513,7 @@
       </c>
       <c r="E371" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up Charge</t>
+          <t>10K 42'-48' TELEHANDLER FORKLIFT</t>
         </is>
       </c>
       <c r="F371" s="3" t="inlineStr">
@@ -16506,7 +16522,7 @@
         </is>
       </c>
       <c r="G371" s="4" t="n">
-        <v>400</v>
+        <v>4470</v>
       </c>
       <c r="H371" s="5" t="n">
         <v>500</v>
@@ -16533,7 +16549,7 @@
       </c>
       <c r="E372" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Fees and Charges</t>
         </is>
       </c>
       <c r="F372" s="3" t="inlineStr">
@@ -16542,7 +16558,7 @@
         </is>
       </c>
       <c r="G372" s="4" t="n">
-        <v>455.68</v>
+        <v>190.69</v>
       </c>
       <c r="H372" s="5" t="n">
         <v>500</v>
@@ -16550,11 +16566,11 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>46041</v>
+        <v>46038</v>
       </c>
       <c r="B373" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr">
@@ -16564,12 +16580,12 @@
       </c>
       <c r="D373" s="3" t="inlineStr">
         <is>
-          <t>58310926</t>
+          <t>178433028-0001</t>
         </is>
       </c>
       <c r="E373" s="3" t="inlineStr">
         <is>
-          <t>316 Stainless Steel Check Valve with Fluoroelastomer Piston with Rubber</t>
+          <t>Delivery &amp; Pick Up Charge</t>
         </is>
       </c>
       <c r="F373" s="3" t="inlineStr">
@@ -16578,7 +16594,7 @@
         </is>
       </c>
       <c r="G373" s="4" t="n">
-        <v>787.6799999999999</v>
+        <v>400</v>
       </c>
       <c r="H373" s="5" t="n">
         <v>500</v>
@@ -16586,11 +16602,11 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>46041</v>
+        <v>46038</v>
       </c>
       <c r="B374" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C374" s="3" t="inlineStr">
@@ -16600,7 +16616,7 @@
       </c>
       <c r="D374" s="3" t="inlineStr">
         <is>
-          <t>58310926</t>
+          <t>178433028-0001</t>
         </is>
       </c>
       <c r="E374" s="3" t="inlineStr">
@@ -16614,7 +16630,7 @@
         </is>
       </c>
       <c r="G374" s="4" t="n">
-        <v>43.32</v>
+        <v>455.68</v>
       </c>
       <c r="H374" s="5" t="n">
         <v>500</v>
@@ -16626,7 +16642,7 @@
       </c>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr">
@@ -16641,7 +16657,7 @@
       </c>
       <c r="E375" s="3" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>316 Stainless Steel Check Valve with Fluoroelastomer Piston with Rubber</t>
         </is>
       </c>
       <c r="F375" s="3" t="inlineStr">
@@ -16650,7 +16666,7 @@
         </is>
       </c>
       <c r="G375" s="4" t="n">
-        <v>16.44</v>
+        <v>787.6799999999999</v>
       </c>
       <c r="H375" s="5" t="n">
         <v>500</v>
@@ -16658,35 +16674,35 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="B376" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D376" s="3" t="inlineStr">
         <is>
-          <t>16811</t>
+          <t>58310926</t>
         </is>
       </c>
       <c r="E376" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere per diem Per diem for week of 1/26/2026 - 2/21/2026</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G376" s="4" t="n">
-        <v>350</v>
+        <v>43.32</v>
       </c>
       <c r="H376" s="5" t="n">
         <v>500</v>
@@ -16694,107 +16710,111 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="B377" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D377" s="3" t="inlineStr">
         <is>
-          <t>16811</t>
+          <t>9775828545</t>
         </is>
       </c>
       <c r="E377" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt per diem Per diem for week of 1/26/2026 - 2/21/2026</t>
+          <t>V-BELT PULLEY,DETACHABLE,3GROOVE,7.75"O</t>
         </is>
       </c>
       <c r="F377" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G377" s="4" t="n">
-        <v>350</v>
-      </c>
-      <c r="H377" s="5" t="n">
-        <v>500</v>
+        <v>222.11</v>
+      </c>
+      <c r="H377" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="B378" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D378" s="3" t="inlineStr">
         <is>
-          <t>16811</t>
+          <t>9775828545</t>
         </is>
       </c>
       <c r="E378" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt per diem Per diem for week of 1/17/2026 - 1/18/2026</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F378" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G378" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H378" s="5" t="n">
-        <v>500</v>
+        <v>17.22</v>
+      </c>
+      <c r="H378" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="B379" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C379" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D379" s="3" t="inlineStr">
         <is>
-          <t>16811</t>
+          <t>58310926</t>
         </is>
       </c>
       <c r="E379" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh per diem Per diem for week of 1/26/2026 - 2/21/2026</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="G379" s="4" t="n">
-        <v>350</v>
+        <v>16.44</v>
       </c>
       <c r="H379" s="5" t="n">
         <v>500</v>
@@ -16802,38 +16822,2044 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B380" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C380" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D380" s="3" t="inlineStr">
+        <is>
+          <t>58542308</t>
+        </is>
+      </c>
+      <c r="E380" s="3" t="inlineStr">
+        <is>
+          <t>Felt Filter Bag for Water, Sewn Seam, 7" Diameter</t>
+        </is>
+      </c>
+      <c r="F380" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G380" s="4" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="H380" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B381" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C381" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D381" s="3" t="inlineStr">
+        <is>
+          <t>58542308</t>
+        </is>
+      </c>
+      <c r="E381" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F381" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G381" s="4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="H381" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B382" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C382" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D382" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E382" s="3" t="inlineStr">
+        <is>
+          <t>2 LONG RADIUS 45 ELBOW WELD HEAT</t>
+        </is>
+      </c>
+      <c r="F382" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G382" s="4" t="n">
+        <v>84.95999999999999</v>
+      </c>
+      <c r="H382" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B383" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C383" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D383" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E383" s="3" t="inlineStr">
+        <is>
+          <t>WLDCAP2</t>
+        </is>
+      </c>
+      <c r="F383" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G383" s="4" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="H383" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B384" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C384" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D384" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E384" s="3" t="inlineStr">
+        <is>
+          <t>2 LONG RADIUS 90 ELBOW WELD HEAT</t>
+        </is>
+      </c>
+      <c r="F384" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G384" s="4" t="n">
+        <v>265.65</v>
+      </c>
+      <c r="H384" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B385" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C385" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D385" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E385" s="3" t="inlineStr">
+        <is>
+          <t>2 150# RF SLIP-ON WELD FLANGE A105 HEAT</t>
+        </is>
+      </c>
+      <c r="F385" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G385" s="4" t="n">
+        <v>202.6</v>
+      </c>
+      <c r="H385" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B386" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C386" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D386" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E386" s="3" t="inlineStr">
+        <is>
+          <t>2 150# 1/16 FULL FACE GASKET NON-ASBESTOS FIBER</t>
+        </is>
+      </c>
+      <c r="F386" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G386" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H386" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B387" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C387" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D387" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E387" s="3" t="inlineStr">
+        <is>
+          <t>2 - 3 BOLT SET PLTD 307A (4) 5/8 X 3</t>
+        </is>
+      </c>
+      <c r="F387" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G387" s="4" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="H387" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B388" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C388" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D388" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E388" s="3" t="inlineStr">
+        <is>
+          <t>2 TEE WELD HEAT</t>
+        </is>
+      </c>
+      <c r="F388" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G388" s="4" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="H388" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B389" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C389" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D389" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E389" s="3" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="F389" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G389" s="4" t="n">
+        <v>99.51000000000001</v>
+      </c>
+      <c r="H389" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B390" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C390" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D390" s="3" t="inlineStr">
+        <is>
+          <t>252549305-006</t>
+        </is>
+      </c>
+      <c r="E390" s="3" t="inlineStr">
+        <is>
+          <t>375/0525 FENCE MODULAR 12' L X 6' H TEMPORARY PAN</t>
+        </is>
+      </c>
+      <c r="F390" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G390" s="4" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H390" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B391" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C391" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D391" s="3" t="inlineStr">
+        <is>
+          <t>252549305-006</t>
+        </is>
+      </c>
+      <c r="E391" s="3" t="inlineStr">
+        <is>
+          <t>Fence Wheel and weight</t>
+        </is>
+      </c>
+      <c r="F391" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G391" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H391" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B392" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C392" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D392" s="3" t="inlineStr">
+        <is>
+          <t>252549305-006</t>
+        </is>
+      </c>
+      <c r="E392" s="3" t="inlineStr">
+        <is>
+          <t>Service Charge and Tax</t>
+        </is>
+      </c>
+      <c r="F392" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G392" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H392" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B393" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C393" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D393" s="3" t="inlineStr">
+        <is>
+          <t>58542308</t>
+        </is>
+      </c>
+      <c r="E393" s="3" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="F393" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G393" s="4" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="H393" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B394" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C394" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D394" s="3" t="inlineStr">
+        <is>
+          <t>1611105730</t>
+        </is>
+      </c>
+      <c r="E394" s="3" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="F394" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G394" s="4" t="n">
+        <v>124.87</v>
+      </c>
+      <c r="H394" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>46045</v>
       </c>
-      <c r="B380" s="3" t="inlineStr">
+      <c r="B395" s="3" t="inlineStr">
         <is>
           <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
-      <c r="C380" s="3" t="inlineStr">
+      <c r="C395" s="3" t="inlineStr">
         <is>
           <t>General Journal</t>
         </is>
       </c>
-      <c r="D380" s="3" t="inlineStr">
+      <c r="D395" s="3" t="inlineStr">
         <is>
           <t>16811</t>
         </is>
       </c>
-      <c r="E380" s="3" t="inlineStr">
+      <c r="E395" s="3" t="inlineStr">
+        <is>
+          <t>Luke Giguere per diem Per diem for week of 1/26/2026 - 2/21/2026</t>
+        </is>
+      </c>
+      <c r="F395" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G395" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H395" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B396" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C396" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D396" s="3" t="inlineStr">
+        <is>
+          <t>16811</t>
+        </is>
+      </c>
+      <c r="E396" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt per diem Per diem for week of 1/26/2026 - 2/21/2026</t>
+        </is>
+      </c>
+      <c r="F396" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G396" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H396" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B397" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C397" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D397" s="3" t="inlineStr">
+        <is>
+          <t>16811</t>
+        </is>
+      </c>
+      <c r="E397" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt per diem Per diem for week of 1/17/2026 - 1/18/2026</t>
+        </is>
+      </c>
+      <c r="F397" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G397" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H397" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B398" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C398" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D398" s="3" t="inlineStr">
+        <is>
+          <t>16811</t>
+        </is>
+      </c>
+      <c r="E398" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh per diem Per diem for week of 1/26/2026 - 2/21/2026</t>
+        </is>
+      </c>
+      <c r="F398" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G398" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H398" s="5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B399" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C399" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D399" s="3" t="inlineStr">
+        <is>
+          <t>16811</t>
+        </is>
+      </c>
+      <c r="E399" s="3" t="inlineStr">
         <is>
           <t>Vace Varasteh per diem Per diem for week of 1/9/2026 - 1/11/2026</t>
         </is>
       </c>
-      <c r="F380" s="3" t="inlineStr">
+      <c r="F399" s="3" t="inlineStr">
         <is>
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G380" s="4" t="n">
+      <c r="G399" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H380" s="5" t="n">
+      <c r="H399" s="5" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="B400" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C400" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D400" s="3" t="inlineStr">
+        <is>
+          <t>9784026081</t>
+        </is>
+      </c>
+      <c r="E400" s="3" t="inlineStr">
+        <is>
+          <t>GATE VALVE,1",BRASS,NPT</t>
+        </is>
+      </c>
+      <c r="F400" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G400" s="4" t="n">
+        <v>2022.75</v>
+      </c>
+      <c r="H400" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="B401" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C401" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D401" s="3" t="inlineStr">
+        <is>
+          <t>9784026081</t>
+        </is>
+      </c>
+      <c r="E401" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F401" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G401" s="4" t="n">
+        <v>189.64</v>
+      </c>
+      <c r="H401" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B402" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C402" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D402" s="3" t="inlineStr">
+        <is>
+          <t>1611105730-1</t>
+        </is>
+      </c>
+      <c r="E402" s="3" t="inlineStr">
+        <is>
+          <t>2 CAP WELD HEAT</t>
+        </is>
+      </c>
+      <c r="F402" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G402" s="4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H402" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B403" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C403" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D403" s="3" t="inlineStr">
+        <is>
+          <t>1611105730-1</t>
+        </is>
+      </c>
+      <c r="E403" s="3" t="inlineStr">
+        <is>
+          <t>2 150# RF SLIP-ON WELD FLANGE A105 HEAT</t>
+        </is>
+      </c>
+      <c r="F403" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G403" s="4" t="n">
+        <v>526.76</v>
+      </c>
+      <c r="H403" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B404" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C404" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D404" s="3" t="inlineStr">
+        <is>
+          <t>1611105730-1</t>
+        </is>
+      </c>
+      <c r="E404" s="3" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F404" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G404" s="4" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="H404" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="B405" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C405" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D405" s="3" t="inlineStr">
+        <is>
+          <t>IN222703</t>
+        </is>
+      </c>
+      <c r="E405" s="3" t="inlineStr">
+        <is>
+          <t>10' galv spiral pipe 1- ft 26 ga</t>
+        </is>
+      </c>
+      <c r="F405" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G405" s="4" t="n">
+        <v>1925</v>
+      </c>
+      <c r="H405" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="B406" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C406" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D406" s="3" t="inlineStr">
+        <is>
+          <t>16815</t>
+        </is>
+      </c>
+      <c r="E406" s="3" t="inlineStr">
+        <is>
+          <t>Luke Giguere Per diem for week of 2/2/2026 - 2/8/2026</t>
+        </is>
+      </c>
+      <c r="F406" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G406" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H406" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="B407" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C407" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D407" s="3" t="inlineStr">
+        <is>
+          <t>16815</t>
+        </is>
+      </c>
+      <c r="E407" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 2/2/2026 - 2/8/2026</t>
+        </is>
+      </c>
+      <c r="F407" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G407" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H407" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="B408" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C408" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D408" s="3" t="inlineStr">
+        <is>
+          <t>16815</t>
+        </is>
+      </c>
+      <c r="E408" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 2/2/2026 - 2/8/2026</t>
+        </is>
+      </c>
+      <c r="F408" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G408" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H408" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B409" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C409" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D409" s="3" t="inlineStr">
+        <is>
+          <t>1611148835</t>
+        </is>
+      </c>
+      <c r="E409" s="3" t="inlineStr">
+        <is>
+          <t>2 BLK PE A53B SCH40 STEEL PIPE .154W HEAT</t>
+        </is>
+      </c>
+      <c r="F409" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G409" s="4" t="n">
+        <v>745.9</v>
+      </c>
+      <c r="H409" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B410" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C410" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D410" s="3" t="inlineStr">
+        <is>
+          <t>1611148835</t>
+        </is>
+      </c>
+      <c r="E410" s="3" t="inlineStr">
+        <is>
+          <t>2 LONG RADIUS 45 ELBOW WELD HEAT</t>
+        </is>
+      </c>
+      <c r="F410" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G410" s="4" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="H410" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B411" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C411" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D411" s="3" t="inlineStr">
+        <is>
+          <t>1611148835</t>
+        </is>
+      </c>
+      <c r="E411" s="3" t="inlineStr">
+        <is>
+          <t>2 150# RF SLIP-ON WELD FLANGE A105 HEAT</t>
+        </is>
+      </c>
+      <c r="F411" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G411" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H411" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B412" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C412" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D412" s="3" t="inlineStr">
+        <is>
+          <t>1611148835</t>
+        </is>
+      </c>
+      <c r="E412" s="3" t="inlineStr">
+        <is>
+          <t>2 150# 1/16 FULL FACE GASKET NON-ASBESTOS FIBER</t>
+        </is>
+      </c>
+      <c r="F412" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G412" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H412" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B413" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C413" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D413" s="3" t="inlineStr">
+        <is>
+          <t>1611148835</t>
+        </is>
+      </c>
+      <c r="E413" s="3" t="inlineStr">
+        <is>
+          <t>2 - 3 BOLT SET PLTD 307A (4) 5/8 X 3</t>
+        </is>
+      </c>
+      <c r="F413" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G413" s="4" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H413" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B414" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C414" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D414" s="3" t="inlineStr">
+        <is>
+          <t>1611148835</t>
+        </is>
+      </c>
+      <c r="E414" s="3" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="F414" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G414" s="4" t="n">
+        <v>73.88</v>
+      </c>
+      <c r="H414" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B415" s="3" t="inlineStr">
+        <is>
+          <t>5112 · Carbon &amp; Lab Samplies (Driect)</t>
+        </is>
+      </c>
+      <c r="C415" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D415" s="3" t="inlineStr">
+        <is>
+          <t>CSI 134-26</t>
+        </is>
+      </c>
+      <c r="E415" s="3" t="inlineStr">
+        <is>
+          <t>55 Gallon Liquid Phase Filter Drums filled with Liquid Phase Coconut Shell Activated Carbon</t>
+        </is>
+      </c>
+      <c r="F415" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G415" s="4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="H415" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B416" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="C416" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D416" s="3" t="inlineStr">
+        <is>
+          <t>CSI 134-26</t>
+        </is>
+      </c>
+      <c r="E416" s="3" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="F416" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G416" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H416" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B417" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C417" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D417" s="3" t="inlineStr">
+        <is>
+          <t>16818</t>
+        </is>
+      </c>
+      <c r="E417" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 2/9/2026 - 2/15/2026</t>
+        </is>
+      </c>
+      <c r="F417" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G417" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H417" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B418" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C418" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D418" s="3" t="inlineStr">
+        <is>
+          <t>16818</t>
+        </is>
+      </c>
+      <c r="E418" s="3" t="inlineStr">
+        <is>
+          <t>Mike Cogswell Per diem for week of 2/9/2026 - 2/15/2026</t>
+        </is>
+      </c>
+      <c r="F418" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G418" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H418" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B419" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C419" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D419" s="3" t="inlineStr">
+        <is>
+          <t>16818</t>
+        </is>
+      </c>
+      <c r="E419" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 2/9/2026 - 2/15/2026</t>
+        </is>
+      </c>
+      <c r="F419" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G419" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H419" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B420" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C420" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D420" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E420" s="3" t="inlineStr">
+        <is>
+          <t>3 LONG RADIUS 90 ELBOW WELD HEAT</t>
+        </is>
+      </c>
+      <c r="F420" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G420" s="4" t="n">
+        <v>258.15</v>
+      </c>
+      <c r="H420" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B421" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C421" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D421" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E421" s="3" t="inlineStr">
+        <is>
+          <t>2 150# RF SLIP-ON WELD FLANGE A105 HEAT</t>
+        </is>
+      </c>
+      <c r="F421" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G421" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H421" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B422" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C422" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D422" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E422" s="3" t="inlineStr">
+        <is>
+          <t>3 150# RF SLIP-ON WELD FLANGE A105 HEAT</t>
+        </is>
+      </c>
+      <c r="F422" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G422" s="4" t="n">
+        <v>274.56</v>
+      </c>
+      <c r="H422" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B423" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C423" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D423" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E423" s="3" t="inlineStr">
+        <is>
+          <t>6 150# RF SLIP-ON WELD FLANGE A105 HEAT</t>
+        </is>
+      </c>
+      <c r="F423" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G423" s="4" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="H423" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B424" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C424" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D424" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E424" s="3" t="inlineStr">
+        <is>
+          <t>3 150# 1/16 FULL FACE GASKET NON-ASBESTOS FIBER</t>
+        </is>
+      </c>
+      <c r="F424" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G424" s="4" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="H424" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B425" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C425" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D425" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E425" s="3" t="inlineStr">
+        <is>
+          <t>6 150# 1/16 FULL FACE GASKET NON-ASBESTOS FIBER</t>
+        </is>
+      </c>
+      <c r="F425" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G425" s="4" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="H425" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B426" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C426" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D426" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E426" s="3" t="inlineStr">
+        <is>
+          <t>6 BOLT SET PLTD 307A (8) 3/4 X 3 1/4</t>
+        </is>
+      </c>
+      <c r="F426" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G426" s="4" t="n">
+        <v>173.96</v>
+      </c>
+      <c r="H426" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B427" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C427" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D427" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E427" s="3" t="inlineStr">
+        <is>
+          <t>2 - 3 BOLT SET PLTD 307A (4) 5/8 X 3</t>
+        </is>
+      </c>
+      <c r="F427" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G427" s="4" t="n">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="H427" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B428" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C428" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D428" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E428" s="3" t="inlineStr">
+        <is>
+          <t>6 X 3 CONC REDUCER WELD HEAT</t>
+        </is>
+      </c>
+      <c r="F428" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G428" s="4" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="H428" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B429" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C429" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D429" s="3" t="inlineStr">
+        <is>
+          <t>1611156933</t>
+        </is>
+      </c>
+      <c r="E429" s="3" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="F429" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G429" s="4" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="H429" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B430" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C430" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D430" s="3" t="inlineStr">
+        <is>
+          <t>16821</t>
+        </is>
+      </c>
+      <c r="E430" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 2/16/2026 - 2/22/2026</t>
+        </is>
+      </c>
+      <c r="F430" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G430" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H430" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B431" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C431" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D431" s="3" t="inlineStr">
+        <is>
+          <t>16821</t>
+        </is>
+      </c>
+      <c r="E431" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 2/16/2026 - 2/22/2026</t>
+        </is>
+      </c>
+      <c r="F431" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G431" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H431" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B432" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C432" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D432" s="3" t="inlineStr">
+        <is>
+          <t>16822</t>
+        </is>
+      </c>
+      <c r="E432" s="3" t="inlineStr">
+        <is>
+          <t>Michael Hyatt Per diem for week of 2/23/2026 - 3/1/2026</t>
+        </is>
+      </c>
+      <c r="F432" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G432" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H432" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B433" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C433" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="D433" s="3" t="inlineStr">
+        <is>
+          <t>16822</t>
+        </is>
+      </c>
+      <c r="E433" s="3" t="inlineStr">
+        <is>
+          <t>Vace Varasteh Per diem for week of 2/23/2026 - 3/1/2026</t>
+        </is>
+      </c>
+      <c r="F433" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G433" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H433" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
   </sheetData>
